--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:03 AM</t>
+    <t>Monday, 14 July, 2025 9:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:04 AM</t>
+    <t>Monday, 14 July, 2025 9:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -44,25 +44,64 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:51 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Monday, 14 July, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +763,137 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>14</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>19</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>94.430000000000007</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +907,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -86,22 +101,28 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:06 AM</t>
+    <t>Monday, 14 July, 2025 10:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -818,14 +839,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -834,66 +855,132 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>94.430000000000007</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>31</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>180.43000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +1009,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:10 AM</t>
+    <t>Monday, 14 July, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -113,6 +113,24 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MINKشامبو700مل</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ايفا كيراتين حمام كريم</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -122,7 +140,16 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:22 AM</t>
+    <t>شامبو الفيف 400 مل</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>Monday, 14 July, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -928,7 +955,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -949,38 +976,137 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>180.43000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>31</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>31</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>19</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>580.42999999999995</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1145,25 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:24 AM</t>
+    <t>Monday, 14 July, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -92,12 +92,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -149,7 +158,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:33 AM</t>
+    <t>Monday, 14 July, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -895,15 +904,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>26</v>
@@ -915,14 +924,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -932,11 +941,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>26</v>
@@ -948,20 +957,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -988,7 +997,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1021,7 +1030,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1054,7 +1063,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1075,38 +1084,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>580.42999999999995</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>46</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>26</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>625.42999999999995</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1202,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:34 AM</t>
+    <t>Monday, 14 July, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:39 AM</t>
+    <t>Monday, 14 July, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -129,6 +129,27 @@
   </si>
   <si>
     <t>70.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>ايفا كيراتين حمام كريم</t>
@@ -1030,13 +1051,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1063,21 +1084,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1089,14 +1110,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1106,49 +1127,115 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>625.42999999999995</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>34</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>19</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>26</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>676.42999999999995</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1294,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:41 AM</t>
+    <t>Monday, 14 July, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -179,7 +179,19 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:42 AM</t>
+    <t>ليفه</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Monday, 14 July, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,38 +1216,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>676.42999999999995</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>56</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>19</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>58</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>691.42999999999995</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>62</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1304,10 +1349,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:43 AM</t>
+    <t>Monday, 14 July, 2025 10:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -170,6 +179,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>شامبو الفيف 400 مل</t>
   </si>
   <si>
@@ -185,13 +203,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Monday, 14 July, 2025 10:53 AM</t>
+    <t>Monday, 14 July, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1063,7 +1075,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1073,11 +1085,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1089,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1129,13 +1141,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1195,7 +1207,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1228,7 +1240,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1238,49 +1250,115 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>59</v>
       </c>
-      <c t="s" r="Q19" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>691.42999999999995</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>26</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>60</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c t="s" r="Q20" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>62</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>63</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>57</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>733.42999999999995</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>64</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>65</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>66</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1354,10 +1432,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -77,6 +77,27 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -101,9 +122,6 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>ايفا كيراتين حمام كريم</t>
   </si>
   <si>
@@ -203,7 +227,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:57 AM</t>
+    <t>Monday, 14 July, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,7 +934,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -920,14 +944,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -936,31 +960,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -969,14 +993,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -986,14 +1010,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1002,31 +1026,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1042,24 +1066,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1068,14 +1092,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,14 +1109,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,31 +1125,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,14 +1158,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1158,7 +1182,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1174,13 +1198,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1191,7 +1215,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1207,13 +1231,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1224,7 +1248,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1240,13 +1264,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1254,10 +1278,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,14 +1290,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1283,14 +1307,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1299,14 +1323,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1316,49 +1340,148 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>733.42999999999995</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>64</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>33</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>65</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>33</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>68</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>70</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>71</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>65</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>832.42999999999995</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>72</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>73</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>74</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1442,10 +1565,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -227,7 +227,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:58 AM</t>
+    <t>Monday, 14 July, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ايفا كيراتين حمام كريم</t>
   </si>
   <si>
@@ -200,7 +209,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سهايه الجو</t>
@@ -227,7 +236,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 11:22 AM</t>
+    <t>Monday, 14 July, 2025 11:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1297,13 +1306,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1314,7 +1323,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1363,7 +1372,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1380,7 +1389,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1429,7 +1438,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1439,49 +1448,82 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>832.42999999999995</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>72</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>73</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>74</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>68</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>851.25999999999999</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>75</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>76</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>77</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1580,10 +1622,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
     <t>6:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -110,7 +122,13 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
   </si>
   <si>
     <t>FRESH COOL ORAL GEL 30ML</t>
@@ -150,9 +168,6 @@
   </si>
   <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>27.00</t>
@@ -916,18 +931,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -943,24 +958,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -969,14 +984,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -986,14 +1001,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1026,7 +1041,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1035,31 +1050,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1075,7 +1090,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1085,14 +1100,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1101,31 +1116,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1141,24 +1156,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1167,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1184,14 +1199,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1200,31 +1215,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1233,14 +1248,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1250,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1266,14 +1281,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1283,11 +1298,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1306,7 +1321,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1339,13 +1354,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1353,10 +1368,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1365,31 +1380,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1398,31 +1413,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1431,31 +1446,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1464,66 +1479,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>851.25999999999999</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>75</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>24</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>76</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>77</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>79</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>24</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>73</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>917.75999999999999</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>80</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>81</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>82</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1627,10 +1708,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 11:32 AM</t>
+    <t>Monday, 14 July, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -158,6 +170,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>MINKشامبو700مل</t>
   </si>
   <si>
@@ -218,6 +239,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -251,7 +281,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 11:33 AM</t>
+    <t>Monday, 14 July, 2025 11:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -964,15 +994,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -984,28 +1014,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1017,14 +1047,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1034,11 +1064,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1074,7 +1104,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1090,7 +1120,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1100,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1116,20 +1146,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1137,10 +1167,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1149,28 +1179,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1182,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1199,7 +1229,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1222,21 +1252,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1248,14 +1278,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1265,14 +1295,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1281,28 +1311,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1314,7 +1344,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1331,11 +1361,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1347,14 +1377,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1364,14 +1394,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,14 +1410,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1397,14 +1427,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1413,31 +1443,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,31 +1476,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1479,28 +1509,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1512,7 +1542,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1525,15 +1555,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1545,66 +1575,165 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>917.75999999999999</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>80</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>81</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>82</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>28</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>83</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>85</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>16</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>28</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>86</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>89</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>28</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>83</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1198.76</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>90</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>91</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>92</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1718,10 +1847,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -74,7 +89,13 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
@@ -281,7 +302,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 11:38 AM</t>
+    <t>Monday, 14 July, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,24 +1042,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1047,14 +1068,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1064,11 +1085,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1093,15 +1114,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1134,10 +1155,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1192,7 +1213,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1200,7 +1221,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1229,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1245,28 +1266,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1295,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1318,21 +1339,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1344,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,14 +1382,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,28 +1398,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1410,7 +1431,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1427,11 +1448,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1443,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1476,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1493,14 +1514,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1509,31 +1530,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,31 +1563,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,31 +1596,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,7 +1629,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1621,15 +1642,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1641,31 +1662,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1674,66 +1695,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1198.76</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>35</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>93</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>96</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>35</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>90</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>91</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>92</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1292.76</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>97</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>98</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>99</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1862,10 +1949,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -62,6 +77,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
@@ -74,9 +104,6 @@
     <t>19.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -131,6 +158,18 @@
     <t>62.00</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -143,6 +182,27 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -173,6 +233,24 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -182,15 +260,21 @@
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>MEGAMOX 1GM 14 F.C. TAB.</t>
   </si>
   <si>
@@ -209,6 +293,12 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -221,12 +311,6 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -242,6 +326,9 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -275,6 +362,15 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
@@ -296,13 +392,49 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>شامبو فاتيكا 360مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>ليفه</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 12:05 PM</t>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Monday, 14 July, 2025 4:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,7 +1141,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1019,11 +1151,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1035,14 +1167,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1052,14 +1184,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1068,14 +1200,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1085,14 +1217,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1101,31 +1233,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1134,7 +1266,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1151,11 +1283,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1167,14 +1299,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,14 +1316,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1200,28 +1332,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1233,14 +1365,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,14 +1382,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1266,31 +1398,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,14 +1431,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,11 +1448,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1332,14 +1464,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,14 +1481,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1497,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,14 +1514,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1398,31 +1530,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,11 +1580,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1464,31 +1596,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,14 +1629,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,11 +1646,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1530,14 +1662,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,11 +1679,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1563,14 +1695,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,11 +1712,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1596,31 +1728,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,28 +1761,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1662,31 +1794,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,31 +1827,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1728,28 +1860,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1761,66 +1893,594 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>72</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>51</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>100</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>101</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1292.76</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>97</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>98</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>99</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>104</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>105</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>66</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>106</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>54</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>107</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>109</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>50</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>44</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>110</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>112</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>21</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>44</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>113</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>115</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>50</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>44</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>116</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>118</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>50</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>44</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>119</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>121</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>44</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>122</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>124</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>21</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>44</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>125</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>127</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>50</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>44</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>130</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>21</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>44</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>122</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>132</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>133</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>44</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>51</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>135</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>136</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>44</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>122</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>137</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>138</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>44</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>139</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1852.4400000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>141</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>142</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>143</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1959,10 +2619,90 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -185,13 +185,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>3:4</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>FERROTRON 30 CAPS</t>
@@ -257,6 +260,12 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -338,6 +347,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ايفا كيراتين حمام كريم</t>
   </si>
   <si>
@@ -347,6 +368,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">حنه جومانا </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
   </si>
   <si>
@@ -362,7 +392,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -416,6 +446,9 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>كريم هيمالايا</t>
+  </si>
+  <si>
     <t>ليفه</t>
   </si>
   <si>
@@ -428,13 +461,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Monday, 14 July, 2025 4:18 PM</t>
+    <t>Monday, 14 July, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1488,7 +1515,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1497,7 +1524,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1514,11 +1541,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1530,14 +1557,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,11 +1574,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1563,7 +1590,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1580,11 +1607,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1596,14 +1623,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1613,7 +1640,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1629,14 +1656,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1650,7 +1677,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1662,7 +1689,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1679,11 +1706,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1695,14 +1722,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1716,7 +1743,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1768,7 +1795,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1785,7 +1812,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1801,7 +1828,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1834,13 +1861,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1851,7 +1878,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1873,7 +1900,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1881,10 +1908,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1893,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1933,7 +1960,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,11 +1970,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,11 +2003,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1999,7 +2026,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2013,10 +2040,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2025,14 +2052,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2098,13 +2125,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2115,7 +2142,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2131,7 +2158,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2141,11 +2168,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2157,7 +2184,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,11 +2234,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2223,7 +2250,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2240,11 +2267,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,7 +2316,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2306,11 +2333,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2322,7 +2349,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2405,11 +2432,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2438,49 +2465,181 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1852.4400000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>141</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>142</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>143</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>44</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>51</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>145</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>44</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>74</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>146</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>147</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>44</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>132</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>148</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>149</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>44</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>114</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1993.29</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>150</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>151</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>152</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2699,10 +2858,30 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
   </si>
   <si>
@@ -86,6 +95,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -140,9 +161,6 @@
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -158,6 +176,18 @@
     <t>62.00</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -173,9 +203,6 @@
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -236,6 +263,15 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -254,6 +290,9 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IROSPECT  SYRUP</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -296,10 +335,13 @@
     <t>MINKشامبو700مل</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>OMEZ 20MG 14 CAPS.</t>
@@ -425,12 +467,6 @@
     <t>شامبو فاتيكا 360مل</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -461,7 +497,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 5:24 PM</t>
+    <t>Monday, 14 July, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1237,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1211,11 +1247,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1227,14 +1263,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1244,11 +1280,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1260,14 +1296,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1277,14 +1313,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1293,14 +1329,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1317,7 +1353,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1366,24 +1402,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1392,14 +1428,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1409,11 +1445,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1432,13 +1468,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1449,7 +1485,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1465,7 +1501,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1475,11 +1511,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1491,14 +1527,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,14 +1544,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1524,14 +1560,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1541,14 +1577,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1557,14 +1593,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1574,14 +1610,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1590,14 +1626,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1607,14 +1643,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1623,31 +1659,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1656,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1673,14 +1709,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1696,7 +1732,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1713,7 +1749,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1729,21 +1765,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1755,31 +1791,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1788,14 +1824,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1841,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,14 +1874,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1854,31 +1890,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1894,21 +1930,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1920,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1937,11 +1973,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1953,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1970,11 +2006,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1986,14 +2022,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2003,14 +2039,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2019,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,14 +2072,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2052,31 +2088,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2092,7 +2128,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2102,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2118,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2135,11 +2171,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2151,20 +2187,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2191,21 +2227,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2217,28 +2253,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2250,31 +2286,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2283,31 +2319,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,31 +2352,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2349,28 +2385,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2382,28 +2418,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2415,28 +2451,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2448,7 +2484,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2461,18 +2497,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2481,31 +2517,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2514,28 +2550,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2547,28 +2583,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2587,59 +2623,257 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1993.29</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>150</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>151</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>60</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>50</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>85</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>152</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>21</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>50</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>146</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>154</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>155</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>50</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>61</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>157</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>50</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>83</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>158</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>159</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>50</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>146</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>160</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>161</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>50</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>128</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2389.02</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>162</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>163</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>164</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2878,10 +3112,40 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -335,6 +344,9 @@
     <t>MINKشامبو700مل</t>
   </si>
   <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -497,7 +509,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 5:52 PM</t>
+    <t>Monday, 14 July, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2002,7 +2014,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2029,7 +2041,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2046,7 +2058,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2062,7 +2074,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2095,24 +2107,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2121,28 +2133,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2161,24 +2173,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,11 +2216,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2293,7 +2305,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,7 +2331,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,11 +2381,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2392,21 +2404,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2418,31 +2430,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,11 +2480,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2501,11 +2513,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2831,49 +2843,115 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2389.02</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>162</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>163</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>50</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>150</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>164</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>165</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>50</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>132</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2743.02</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>166</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>167</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>168</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3142,10 +3220,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 5:53 PM</t>
+    <t>Monday, 14 July, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FRESH COOL ORAL GEL 30ML</t>
   </si>
   <si>
@@ -263,6 +275,15 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>GRODESIRE SYRUP</t>
   </si>
   <si>
@@ -305,6 +326,18 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>KOLAGRA SUN SCREEN 1+1</t>
   </si>
   <si>
@@ -317,9 +350,6 @@
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -422,6 +452,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">حنه جومانا </t>
   </si>
   <si>
@@ -446,7 +485,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -509,7 +548,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 5:54 PM</t>
+    <t>Monday, 14 July, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1822,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1791,10 +1830,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1803,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,11 +1859,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1836,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,11 +1892,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1869,7 +1908,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1882,15 +1921,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1902,20 +1941,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1923,10 +1962,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,11 +1991,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1968,31 +2007,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,28 +2040,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2034,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2090,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2067,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2100,31 +2139,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,28 +2172,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2166,31 +2205,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,14 +2255,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,7 +2271,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2245,18 +2284,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,28 +2304,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2298,14 +2337,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,11 +2354,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2331,14 +2370,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,14 +2387,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,14 +2403,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,14 +2420,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2397,14 +2436,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2453,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2430,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2486,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,28 +2535,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2536,13 +2575,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2553,7 +2592,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2569,7 +2608,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,11 +2618,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2595,7 +2634,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2612,14 +2651,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,7 +2667,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2645,11 +2684,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2661,7 +2700,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2678,11 +2717,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2694,7 +2733,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2711,11 +2750,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2727,7 +2766,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2744,14 +2783,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2760,14 +2799,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2777,14 +2816,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2793,14 +2832,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2810,14 +2849,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2826,14 +2865,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2843,11 +2882,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2859,14 +2898,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2876,11 +2915,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2892,14 +2931,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2909,49 +2948,181 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2743.02</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>166</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>167</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>168</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>171</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>172</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>50</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>61</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>174</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>18</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>87</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>175</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>176</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>50</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>163</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>177</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>178</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>50</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>142</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2886.46</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>179</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>180</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>181</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3230,10 +3401,30 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -188,12 +200,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -209,6 +227,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -224,6 +254,15 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -296,9 +335,6 @@
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>24.7500</t>
   </si>
   <si>
@@ -371,9 +407,24 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MINKشامبو700مل</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -401,6 +452,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -425,12 +485,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -446,9 +500,6 @@
     <t>ايفا كيراتين حمام كريم</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>180.0000</t>
   </si>
   <si>
@@ -548,7 +599,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:10 PM</t>
+    <t>Monday, 14 July, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1239,7 +1290,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1248,14 +1299,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1272,7 +1323,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1281,14 +1332,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1298,14 +1349,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1314,14 +1365,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1338,7 +1389,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1364,14 +1415,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1380,14 +1431,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1397,14 +1448,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1453,7 +1504,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1463,14 +1514,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1479,14 +1530,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1503,7 +1554,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1519,13 +1570,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1552,21 +1603,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1578,14 +1629,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1595,14 +1646,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1635,7 +1686,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1651,7 +1702,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1684,7 +1735,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1694,14 +1745,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1710,14 +1761,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1727,11 +1778,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1743,14 +1794,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1760,14 +1811,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1776,14 +1827,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1793,14 +1844,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1816,7 +1867,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1826,11 +1877,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1842,31 +1893,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1875,14 +1926,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1899,7 +1950,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1915,13 +1966,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1932,7 +1983,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1958,11 +2009,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1974,31 +2025,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2007,31 +2058,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2040,31 +2091,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2073,14 +2124,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,11 +2141,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2106,14 +2157,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2123,14 +2174,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2139,31 +2190,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2172,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,14 +2240,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,7 +2273,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2245,7 +2296,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,14 +2306,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2271,31 +2322,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2304,31 +2355,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2337,7 +2388,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2354,14 +2405,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2370,14 +2421,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2387,11 +2438,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2403,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,14 +2471,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2436,20 +2487,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2460,7 +2511,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,14 +2520,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2486,14 +2537,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,31 +2553,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,7 +2586,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2552,14 +2603,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,14 +2619,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2585,11 +2636,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2601,31 +2652,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,31 +2685,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,31 +2718,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,31 +2751,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2733,31 +2784,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2773,24 +2824,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2799,7 +2850,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2812,18 +2863,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2832,31 +2883,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2865,31 +2916,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2898,31 +2949,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2931,31 +2982,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2964,31 +3015,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2997,7 +3048,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3010,18 +3061,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3030,31 +3081,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3063,66 +3114,297 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2886.46</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>179</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>182</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>25</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>54</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>183</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>185</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>18</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>54</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>105</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>186</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>25</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>54</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>180</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>188</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>189</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>54</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>67</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>191</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>22</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>54</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>100</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>192</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>193</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>54</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>180</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>181</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>194</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>195</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>54</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>160</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3300.4949999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>196</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>197</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>198</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3421,10 +3703,45 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -599,7 +599,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:12 PM</t>
+    <t>Monday, 14 July, 2025 6:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -521,6 +530,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
   </si>
   <si>
@@ -596,10 +617,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>Monday, 14 July, 2025 6:20 PM</t>
+    <t>Monday, 14 July, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2692,7 +2710,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2725,7 +2743,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,11 +2786,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2791,7 +2809,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2805,10 +2823,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,14 +2885,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,31 +2901,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2933,11 +2951,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2949,7 +2967,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2966,7 +2984,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2989,7 +3007,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3055,7 +3073,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3098,11 +3116,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3164,11 +3182,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3197,11 +3215,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3213,7 +3231,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3362,49 +3380,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3300.4949999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>196</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>197</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>198</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>199</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>200</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>54</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>187</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>201</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>174</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>54</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>163</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3367.0749999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>202</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>203</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>204</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3738,10 +3822,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -77,375 +92,375 @@
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IROSPECT  SYRUP</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINKشامبو700مل</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IROSPECT  SYRUP</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>KOLAGRA SUN SCREEN 1+1</t>
-  </si>
-  <si>
-    <t>310.00</t>
-  </si>
-  <si>
-    <t>310.0000</t>
-  </si>
-  <si>
-    <t>MACRO PANTHENOL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINKشامبو700مل</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -470,6 +485,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>34.1900</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -491,6 +515,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -572,12 +599,6 @@
     <t>سهايه الجو</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>شامبو الفيف 400 مل</t>
   </si>
   <si>
@@ -611,13 +632,10 @@
     <t>ليفه</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:26 PM</t>
+    <t>Monday, 14 July, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1308,7 +1326,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1317,14 +1335,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1334,14 +1352,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1357,7 +1375,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1367,14 +1385,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1383,14 +1401,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1400,14 +1418,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1416,14 +1434,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1466,14 +1484,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1482,14 +1500,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1499,11 +1517,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1539,7 +1557,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1555,7 +1573,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1565,14 +1583,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1581,14 +1599,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1621,13 +1639,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1638,7 +1656,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1654,24 +1672,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1697,14 +1715,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1720,7 +1738,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1730,11 +1748,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1746,14 +1764,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1763,14 +1781,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1796,11 +1814,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1812,14 +1830,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1836,7 +1854,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,7 +1887,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1902,7 +1920,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1928,14 +1946,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1968,7 +1986,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1984,7 +2002,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1994,11 +2012,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2010,14 +2028,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2034,7 +2052,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2056,7 +2074,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2064,10 +2082,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2076,28 +2094,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2109,31 +2127,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2142,28 +2160,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,31 +2226,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2241,31 +2259,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2291,11 +2309,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2347,24 +2365,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2373,31 +2391,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,11 +2441,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,14 +2474,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,31 +2523,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2538,28 +2556,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2571,31 +2589,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2604,31 +2622,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,11 +2672,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,11 +2738,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2802,31 +2820,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,31 +2952,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2967,31 +2985,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,31 +3018,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,31 +3051,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,31 +3084,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,31 +3117,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3132,31 +3150,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,31 +3183,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,31 +3216,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,31 +3249,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3264,31 +3282,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3297,31 +3315,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3330,31 +3348,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3363,31 +3381,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3396,31 +3414,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3429,66 +3447,132 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3367.0749999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>202</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>203</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>204</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>206</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>27</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>58</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>14</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>207</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>183</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>58</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>172</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3442.2649999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>208</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>209</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>210</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3832,10 +3916,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -149,6 +149,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -305,6 +314,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -455,6 +473,15 @@
     <t>56.00</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -512,6 +539,12 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -539,6 +572,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -614,9 +656,6 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>كريم ONE للبشره الحساسه</t>
   </si>
   <si>
@@ -626,6 +665,12 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>كريم هيمالايا</t>
   </si>
   <si>
@@ -635,7 +680,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:38 PM</t>
+    <t>Monday, 14 July, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,7 +1618,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1583,11 +1628,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1599,14 +1644,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1623,7 +1668,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1639,7 +1684,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1649,14 +1694,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1665,28 +1710,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1698,20 +1743,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1719,7 +1764,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1731,14 +1776,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1752,10 +1797,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1764,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1788,7 +1833,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1804,7 +1849,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1821,7 +1866,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1837,7 +1882,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1854,7 +1899,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1870,7 +1915,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1880,11 +1925,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1896,14 +1941,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1913,14 +1958,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1929,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1946,14 +1991,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1969,7 +2014,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2002,7 +2047,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2012,14 +2057,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2028,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2052,7 +2097,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2068,7 +2113,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2078,11 +2123,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2094,31 +2139,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2127,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2167,21 +2212,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2200,7 +2245,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2210,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2226,7 +2271,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2239,15 +2284,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2259,31 +2304,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2292,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2309,11 +2354,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2325,31 +2370,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2358,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2375,14 +2420,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2398,24 +2443,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2424,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2441,14 +2486,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2457,31 +2502,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2490,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2507,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2530,7 +2575,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2540,14 +2585,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2556,31 +2601,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2589,7 +2634,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2606,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2622,28 +2667,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2655,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2672,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2688,31 +2733,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2721,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2761,7 +2806,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2775,7 +2820,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2787,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,11 +2849,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2820,20 +2865,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2860,7 +2905,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2870,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2886,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2903,14 +2948,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2919,31 +2964,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2952,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2985,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3002,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3018,31 +3063,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3051,28 +3096,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3084,31 +3129,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3117,31 +3162,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,28 +3195,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3183,28 +3228,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3216,7 +3261,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3229,18 +3274,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3249,7 +3294,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3262,15 +3307,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3282,7 +3327,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3295,15 +3340,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3322,21 +3367,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3348,28 +3393,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3381,31 +3426,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>149</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3414,31 +3459,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3447,28 +3492,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3480,28 +3525,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3513,66 +3558,264 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3442.2649999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>208</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>209</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>210</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>16</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>61</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>14</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>215</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>216</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>61</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>74</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>218</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>219</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>61</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>159</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>220</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>158</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>61</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>110</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>221</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>27</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>61</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>14</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>222</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>197</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>61</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>183</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3707.3249999999998</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>223</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>224</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>225</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3926,10 +4169,40 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -680,7 +680,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:45 PM</t>
+    <t>Monday, 14 July, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -92,385 +92,406 @@
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IROSPECT  SYRUP</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINKشامبو700مل</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IROSPECT  SYRUP</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>KOLAGRA SUN SCREEN 1+1</t>
-  </si>
-  <si>
-    <t>310.00</t>
-  </si>
-  <si>
-    <t>310.0000</t>
-  </si>
-  <si>
-    <t>MACRO PANTHENOL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINKشامبو700مل</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
@@ -485,9 +506,6 @@
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -548,9 +566,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -680,7 +695,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:47 PM</t>
+    <t>Monday, 14 July, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1437,7 +1452,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1463,11 +1478,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1479,7 +1494,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1496,11 +1511,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1512,14 +1527,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1536,7 +1551,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1562,14 +1577,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1595,14 +1610,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1628,11 +1643,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1661,11 +1676,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1727,14 +1742,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1743,28 +1758,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1776,28 +1791,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1826,14 +1841,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1958,11 +1973,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1974,14 +1989,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,14 +2006,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2014,7 +2029,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,11 +2072,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2097,7 +2112,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2113,7 +2128,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,14 +2138,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2139,7 +2154,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2156,11 +2171,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2218,7 +2233,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2226,10 +2241,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2238,31 +2253,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2278,13 +2293,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2295,7 +2310,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2311,24 +2326,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2383,15 +2398,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2403,28 +2418,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2502,20 +2517,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2523,10 +2538,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2535,7 +2550,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2548,11 +2563,11 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2575,7 +2590,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,11 +2633,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2666,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2680,15 +2695,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2700,7 +2715,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2713,18 +2728,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,31 +2748,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,7 +2781,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2779,15 +2794,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2839,7 +2854,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2853,7 +2868,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2897,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2905,7 +2920,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2938,7 +2953,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2955,7 +2970,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2971,13 +2986,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2988,7 +3003,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3004,7 +3019,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,28 +3045,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,11 +3128,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3161,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,31 +3210,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3235,24 +3250,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,20 +3276,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3307,15 +3322,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3327,28 +3342,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3360,28 +3375,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3393,7 +3408,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3406,15 +3421,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3426,31 +3441,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,28 +3474,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3492,31 +3507,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,28 +3540,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3558,28 +3573,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3591,7 +3606,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3604,18 +3619,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3624,31 +3639,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3657,31 +3672,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3697,24 +3712,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3723,28 +3738,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3756,66 +3771,132 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3707.3249999999998</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>223</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>224</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>225</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>226</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>99</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>66</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>14</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>227</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>202</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>66</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>188</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3800.3249999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>228</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>229</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>230</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4199,10 +4280,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -695,7 +695,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:48 PM</t>
+    <t>Monday, 14 July, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -452,6 +452,18 @@
     <t>MINKشامبو700مل</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -641,9 +653,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -668,6 +677,9 @@
     <t>شامبو فاتيكا 360مل</t>
   </si>
   <si>
+    <t xml:space="preserve">فاميليا مناديل </t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -695,7 +707,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:51 PM</t>
+    <t>Monday, 14 July, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2755,7 +2767,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,31 +2793,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,7 +2826,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2827,15 +2839,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2937,7 +2949,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,11 +3041,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3045,31 +3057,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,28 +3090,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3177,7 +3189,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,31 +3288,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3316,7 +3328,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3326,11 +3338,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3342,7 +3354,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3359,11 +3371,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3375,7 +3387,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3392,11 +3404,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3481,7 +3493,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,11 +3503,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3540,7 +3552,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3580,7 +3592,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3606,7 +3618,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3623,11 +3635,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3646,7 +3658,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3745,7 +3757,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3854,49 +3866,115 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3800.3249999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>228</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>229</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>230</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>99</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>66</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>14</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>231</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>206</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>66</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>192</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3880.3249999999998</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>232</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>233</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>234</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4290,10 +4368,20 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -707,7 +707,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 6:58 PM</t>
+    <t>Monday, 14 July, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -707,7 +707,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:00 PM</t>
+    <t>Monday, 14 July, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3724,7 +3724,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3738,10 +3738,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3944,7 +3944,7 @@
     </row>
     <row r="86" ht="25.5" customHeight="1">
       <c r="P86" s="13">
-        <v>3880.3249999999998</v>
+        <v>3910.3249999999998</v>
       </c>
       <c r="Q86" s="13"/>
     </row>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -134,81 +134,84 @@
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -266,321 +269,318 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IROSPECT  SYRUP</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINKشامبو700مل</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>34.1900</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>16.8300</t>
   </si>
   <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IROSPECT  SYRUP</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>KOLAGRA SUN SCREEN 1+1</t>
-  </si>
-  <si>
-    <t>310.00</t>
-  </si>
-  <si>
-    <t>310.0000</t>
-  </si>
-  <si>
-    <t>MACRO PANTHENOL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINKشامبو700مل</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>34.1900</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRITTICO 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -692,6 +692,9 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>كريم براشوت</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -707,7 +710,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:01 PM</t>
+    <t>Monday, 14 July, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,21 +1813,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1836,7 +1839,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1853,7 +1856,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1869,14 +1872,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1886,11 +1889,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1902,14 +1905,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1919,11 +1922,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1935,7 +1938,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1952,11 +1955,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2001,14 +2004,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2022,10 +2025,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2055,10 +2058,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2067,14 +2070,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2117,11 +2120,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2150,11 +2153,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2166,7 +2169,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2183,11 +2186,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2199,7 +2202,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2216,11 +2219,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,11 +2252,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2265,7 +2268,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2278,15 +2281,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2298,7 +2301,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2315,11 +2318,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2331,7 +2334,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2344,15 +2347,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2364,14 +2367,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2414,11 +2417,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2430,7 +2433,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2443,7 +2446,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2463,7 +2466,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2484,7 +2487,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2496,14 +2499,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,14 +2549,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2562,7 +2565,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2575,15 +2578,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2595,7 +2598,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,11 +2648,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2661,7 +2664,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2678,11 +2681,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2711,11 +2714,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2727,7 +2730,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2740,15 +2743,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,11 +2780,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2810,11 +2813,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2839,15 +2842,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2859,7 +2862,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2876,11 +2879,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2892,7 +2895,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,14 +2945,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,7 +2961,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2975,11 +2978,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3008,11 +3011,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,11 +3044,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,11 +3077,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3090,7 +3093,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3103,15 +3106,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3123,7 +3126,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3140,11 +3143,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3156,7 +3159,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3173,11 +3176,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3222,7 +3225,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3255,7 +3258,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3272,11 +3275,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3309,7 +3312,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3334,7 +3337,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3367,11 +3370,11 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3400,7 +3403,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3433,7 +3436,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3466,7 +3469,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3499,7 +3502,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3532,7 +3535,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3565,7 +3568,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3576,7 +3579,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3598,7 +3601,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3631,7 +3634,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3664,7 +3667,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3697,15 +3700,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3730,7 +3733,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3738,7 +3741,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3763,7 +3766,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3796,11 +3799,11 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3823,21 +3826,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3849,28 +3852,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3889,21 +3892,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3922,59 +3925,92 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>232</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>206</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>67</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>192</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>193</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3910.3249999999998</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>232</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3972.1550000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
         <v>233</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
         <v>234</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>235</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4378,10 +4414,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -710,7 +710,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:14 PM</t>
+    <t>Monday, 14 July, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -362,9 +374,6 @@
     <t>GRODESIRE SYRUP</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -581,6 +590,12 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -653,6 +668,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -710,7 +728,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:15 PM</t>
+    <t>Monday, 14 July, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1819,15 +1837,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1839,28 +1857,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1872,14 +1890,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1912,7 +1930,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2077,7 +2095,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2160,7 +2178,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2176,7 +2194,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2202,7 +2220,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2219,11 +2237,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2275,24 +2293,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2301,31 +2319,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2334,31 +2352,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2367,31 +2385,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2446,15 +2464,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2466,28 +2484,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2572,24 +2590,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2611,15 +2629,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2671,7 +2689,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2704,7 +2722,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2730,7 +2748,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2743,15 +2761,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2763,28 +2781,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2820,7 +2838,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2836,24 +2854,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2862,7 +2880,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2875,15 +2893,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2902,7 +2920,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2916,10 +2934,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2949,10 +2967,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3001,7 +3019,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3018,7 +3036,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3034,7 +3052,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3051,7 +3069,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3067,7 +3085,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3100,13 +3118,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3117,7 +3135,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3133,21 +3151,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,11 +3194,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3199,7 +3217,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3213,10 +3231,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3324,31 +3342,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3357,31 +3375,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3390,20 +3408,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3436,15 +3454,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3456,28 +3474,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3489,28 +3507,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3522,7 +3540,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3535,15 +3553,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3555,31 +3573,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3595,13 +3613,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3628,24 +3646,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3654,28 +3672,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3687,7 +3705,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3700,15 +3718,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3720,31 +3738,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3753,7 +3771,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3766,18 +3784,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3786,31 +3804,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3819,31 +3837,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3892,24 +3910,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3918,28 +3936,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3951,66 +3969,165 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3972.1550000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>233</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>234</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>235</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>236</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>30</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>71</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>116</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>237</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>102</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>71</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>238</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>211</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>71</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>197</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4004.4749999999999</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>239</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>240</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>241</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4419,10 +4536,25 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -728,7 +728,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:34 PM</t>
+    <t>Monday, 14 July, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>AVUVA WHITE PASTE</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>BENDAX 100MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -143,6 +158,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CALAMINE LOTION 120 ML NOVEX</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -224,9 +248,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -500,9 +521,6 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -512,6 +530,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -527,9 +557,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -617,12 +644,6 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -728,7 +749,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:35 PM</t>
+    <t>Monday, 14 July, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1534,21 +1555,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1560,7 +1581,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1577,11 +1598,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1593,14 +1614,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1610,14 +1631,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1626,14 +1647,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1659,14 +1680,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1676,14 +1697,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1692,14 +1713,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1742,11 +1763,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1791,14 +1812,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1808,11 +1829,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1848,7 +1869,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1870,15 +1891,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1911,7 +1932,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1923,31 +1944,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1973,11 +1994,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1996,7 +2017,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2006,11 +2027,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2039,11 +2060,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2138,14 +2159,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2161,7 +2182,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2211,7 +2232,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2227,7 +2248,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2260,7 +2281,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2270,14 +2291,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2326,13 +2347,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2340,10 +2361,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2369,11 +2390,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2385,28 +2406,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2435,11 +2456,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2451,7 +2472,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2464,15 +2485,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2484,31 +2505,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2550,31 +2571,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2616,31 +2637,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2682,31 +2703,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2715,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2781,31 +2802,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2831,11 +2852,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2847,7 +2868,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2860,18 +2881,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2887,21 +2908,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,31 +2967,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3019,7 +3040,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3033,7 +3054,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3085,21 +3106,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,11 +3149,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3144,28 +3165,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3184,7 +3205,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3243,31 +3264,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3293,11 +3314,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3359,11 +3380,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3408,31 +3429,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3441,31 +3462,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3474,31 +3495,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3514,21 +3535,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3540,24 +3561,24 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3580,21 +3601,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3606,28 +3627,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3639,31 +3660,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3672,28 +3693,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3705,28 +3726,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3738,31 +3759,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3771,28 +3792,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3817,15 +3838,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3837,31 +3858,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3870,7 +3891,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3883,18 +3904,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3903,31 +3924,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3936,31 +3957,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3969,31 +3990,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4002,31 +4023,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4035,28 +4056,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4068,66 +4089,165 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4004.4749999999999</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>239</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>240</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>241</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>243</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>30</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>36</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>123</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>244</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>109</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>36</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>14</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>245</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>218</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>36</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>206</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4108.4750000000004</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>246</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>247</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>248</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4551,10 +4671,25 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:41 PM</t>
+    <t>Monday, 14 July, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>E-MOXCLAV 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -587,6 +596,15 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
+    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -623,6 +641,18 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8551:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -686,9 +716,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -698,9 +725,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سهايه الجو</t>
   </si>
   <si>
@@ -749,7 +773,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 7:48 PM</t>
+    <t>Monday, 14 July, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2116,7 +2140,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2133,7 +2157,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2163,10 +2187,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2175,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2216,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2249,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2248,7 +2272,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2281,7 +2305,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2331,7 +2355,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2380,7 +2404,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,11 +2414,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2406,20 +2430,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2427,10 +2451,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,31 +2463,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2479,24 +2503,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,31 +2529,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2584,15 +2608,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2604,28 +2628,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2710,24 +2734,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2749,15 +2773,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2769,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2809,7 +2833,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2842,7 +2866,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,7 +2892,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2881,15 +2905,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2901,28 +2925,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2958,7 +2982,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2974,24 +2998,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,7 +3024,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3013,15 +3037,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3040,7 +3064,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3054,10 +3078,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,31 +3123,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,20 +3156,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3172,7 +3196,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3186,10 +3210,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3238,7 +3262,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3271,13 +3295,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3288,7 +3312,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3304,21 +3328,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3330,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3371,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3370,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3384,10 +3408,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3437,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3429,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,7 +3519,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3512,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,31 +3552,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3568,24 +3592,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3601,24 +3625,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,11 +3668,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3660,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3677,11 +3701,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3693,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,11 +3734,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3733,7 +3757,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3766,7 +3790,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3780,10 +3804,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,14 +3816,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,11 +3833,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3825,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,11 +3866,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3858,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3924,7 +3948,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3941,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3957,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,14 +3998,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,7 +4014,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4007,14 +4031,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4023,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4040,14 +4064,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4056,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4073,14 +4097,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4089,14 +4113,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4106,14 +4130,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4122,14 +4146,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4139,14 +4163,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4172,11 +4196,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4205,49 +4229,148 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4108.4750000000004</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>246</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>247</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>248</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>251</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>30</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>36</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>126</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>252</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>112</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>36</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>14</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>253</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>228</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>36</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>216</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4256.4750000000004</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>254</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>255</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>256</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4686,10 +4809,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AVUVA WHITE PASTE</t>
   </si>
   <si>
@@ -197,6 +212,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -245,9 +272,6 @@
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -344,6 +368,15 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -560,6 +593,18 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -713,18 +758,24 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سهايه الجو</t>
   </si>
   <si>
@@ -770,10 +821,13 @@
     <t>ليفه</t>
   </si>
   <si>
+    <t>معجون اسنان فلورو بالكولا</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:06 PM</t>
+    <t>Monday, 14 July, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1585,18 +1639,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1612,21 +1666,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1638,7 +1692,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1655,11 +1709,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1671,14 +1725,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1688,14 +1742,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1704,14 +1758,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1721,14 +1775,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1737,14 +1791,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1754,11 +1808,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1770,14 +1824,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,14 +1841,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1803,14 +1857,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1820,11 +1874,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1836,14 +1890,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1853,11 +1907,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1869,14 +1923,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1886,11 +1940,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1902,14 +1956,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1919,11 +1973,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1935,14 +1989,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1952,14 +2006,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1968,28 +2022,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2001,14 +2055,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,11 +2072,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2034,31 +2088,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2067,14 +2121,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,11 +2138,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2100,14 +2154,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,11 +2171,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2133,14 +2187,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2204,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,14 +2220,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2237,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2253,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2270,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2303,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2265,14 +2319,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,14 +2336,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2298,14 +2352,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,14 +2369,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2331,14 +2385,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,14 +2402,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,14 +2418,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,11 +2435,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2397,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2468,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2430,14 +2484,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,14 +2501,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,31 +2517,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,14 +2550,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,11 +2567,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2529,31 +2583,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2562,31 +2616,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,14 +2649,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2666,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,7 +2682,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2641,15 +2695,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2661,14 +2715,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,14 +2732,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,14 +2748,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,14 +2765,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2727,31 +2781,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2760,28 +2814,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2793,14 +2847,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,14 +2864,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2826,14 +2880,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,14 +2897,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2859,31 +2913,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,14 +2946,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,11 +2963,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2925,31 +2979,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +3029,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,7 +3045,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3008,14 +3062,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,28 +3078,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3057,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,11 +3128,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3090,7 +3144,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3107,11 +3161,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3123,31 +3177,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,31 +3210,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,11 +3260,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3229,7 +3283,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3243,10 +3297,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,28 +3309,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3288,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3359,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3321,31 +3375,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3425,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3387,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3491,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,31 +3507,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3557,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3519,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3590,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,11 +3656,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3618,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3689,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,31 +3705,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,31 +3738,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,31 +3771,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,31 +3804,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,28 +3837,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3816,28 +3870,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3849,28 +3903,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3882,7 +3936,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3895,18 +3949,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,28 +3969,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3948,28 +4002,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3981,7 +4035,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3994,15 +4048,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4014,28 +4068,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4047,7 +4101,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4060,18 +4114,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,28 +4134,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>30</v>
@@ -4113,31 +4167,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4146,31 +4200,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4179,7 +4233,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4192,15 +4246,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4212,28 +4266,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4245,31 +4299,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4278,20 +4332,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4299,10 +4353,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4311,66 +4365,264 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4256.4750000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>254</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>255</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>256</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>265</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>16</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>41</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>137</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>266</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>267</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>41</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>199</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>268</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>30</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>41</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>137</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>269</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>123</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>41</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>14</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>270</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>30</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>41</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>42</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>271</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>243</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>41</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>231</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4449.6750000000002</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>272</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>273</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>274</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4824,10 +5076,40 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -827,7 +827,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:10 PM</t>
+    <t>Monday, 14 July, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -257,6 +269,12 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -287,9 +305,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -473,12 +488,12 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>KOLAGRA SUN SCREEN 1+1</t>
   </si>
   <si>
@@ -569,9 +584,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -605,6 +617,9 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -671,6 +686,15 @@
     <t>43.00</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -770,7 +794,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -827,7 +851,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:12 PM</t>
+    <t>Monday, 14 July, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1584,7 +1608,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1593,14 +1617,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1617,7 +1641,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1626,14 +1650,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1650,7 +1674,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1659,31 +1683,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1692,28 +1716,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1725,7 +1749,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1742,11 +1766,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1758,14 +1782,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1782,7 +1806,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1798,7 +1822,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1808,14 +1832,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1824,14 +1848,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1841,11 +1865,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1857,14 +1881,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1874,14 +1898,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1897,7 +1921,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1907,11 +1931,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1923,14 +1947,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1947,7 +1971,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1980,7 +2004,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1996,7 +2020,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2006,14 +2030,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2022,14 +2046,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2046,7 +2070,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2095,21 +2119,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2121,14 +2145,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2142,7 +2166,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2154,20 +2178,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2178,7 +2202,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2194,7 +2218,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2208,7 +2232,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2220,7 +2244,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2237,11 +2261,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2253,7 +2277,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2270,14 +2294,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2286,14 +2310,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2336,14 +2360,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2359,7 +2383,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2385,14 +2409,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2402,14 +2426,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2418,14 +2442,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2501,14 +2525,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2583,14 +2607,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2600,11 +2624,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2616,31 +2640,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2689,21 +2713,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2722,7 +2746,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2732,11 +2756,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2748,24 +2772,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2788,24 +2812,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2814,7 +2838,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2831,11 +2855,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2847,31 +2871,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2880,14 +2904,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2897,14 +2921,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2926,18 +2950,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2946,14 +2970,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2963,14 +2987,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2986,13 +3010,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3003,7 +3027,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3019,7 +3043,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3029,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,14 +3086,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3085,24 +3109,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3128,7 +3152,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3157,18 +3181,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3177,28 +3201,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3210,14 +3234,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3227,14 +3251,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3243,31 +3267,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3283,7 +3307,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3300,7 +3324,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3309,28 +3333,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3342,14 +3366,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3383,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3375,28 +3399,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,14 +3449,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,11 +3482,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3474,14 +3498,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,11 +3515,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3507,28 +3531,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3540,14 +3564,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,14 +3581,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3573,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3606,28 +3630,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3639,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,14 +3680,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,11 +3713,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,14 +3746,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3745,7 +3769,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,11 +3779,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3778,7 +3802,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3811,7 +3835,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,31 +3861,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3870,7 +3894,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3883,18 +3907,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3903,31 +3927,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3936,31 +3960,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,28 +3993,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4002,28 +4026,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4035,28 +4059,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4068,28 +4092,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4101,31 +4125,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,31 +4158,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4174,21 +4198,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4200,28 +4224,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4233,31 +4257,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4266,31 +4290,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4299,7 +4323,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4312,18 +4336,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4332,7 +4356,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4345,7 +4369,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4353,10 +4377,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4365,31 +4389,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4398,28 +4422,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4431,31 +4455,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4464,31 +4488,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4497,31 +4521,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4530,28 +4554,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4563,66 +4587,198 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4449.6750000000002</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>272</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>273</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>274</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>34</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>45</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>142</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>277</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>128</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>45</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>14</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>278</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>34</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>45</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>46</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>279</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>251</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>45</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>239</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4575.3149999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>280</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>281</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>282</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5106,10 +5262,30 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -128,9 +128,6 @@
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
-    <t>1:18</t>
-  </si>
-  <si>
     <t>286.00</t>
   </si>
   <si>
@@ -227,7 +224,7 @@
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>58.00</t>
@@ -608,9 +605,6 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:19</t>
-  </si>
-  <si>
     <t>752.00</t>
   </si>
   <si>
@@ -851,7 +845,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:14 PM</t>
+    <t>Monday, 14 July, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1690,7 +1684,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1700,14 +1694,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1716,28 +1710,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1749,7 +1743,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1766,11 +1760,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1782,7 +1776,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1799,11 +1793,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1815,14 +1809,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1832,11 +1826,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1848,7 +1842,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1865,11 +1859,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1881,14 +1875,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1902,7 +1896,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1914,14 +1908,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1931,11 +1925,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1947,7 +1941,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1964,11 +1958,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1980,14 +1974,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1997,11 +1991,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2013,14 +2007,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,11 +2024,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2046,7 +2040,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2063,11 +2057,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2079,14 +2073,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2096,11 +2090,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2112,14 +2106,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2129,11 +2123,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2145,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,11 +2156,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2178,28 +2172,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2211,7 +2205,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2228,11 +2222,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2244,7 +2238,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2261,11 +2255,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2277,7 +2271,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2294,11 +2288,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2310,7 +2304,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2327,11 +2321,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2343,7 +2337,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2360,11 +2354,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2376,7 +2370,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2393,11 +2387,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2409,7 +2403,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2426,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>29</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2442,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2463,10 +2457,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>117</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2475,7 +2469,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2492,11 +2486,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2508,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,11 +2519,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2541,14 +2535,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,11 +2552,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2574,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,11 +2585,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2607,7 +2601,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2624,11 +2618,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2640,7 +2634,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2657,11 +2651,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2673,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,11 +2684,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2706,7 +2700,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2719,15 +2713,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2739,7 +2733,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2756,11 +2750,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2772,7 +2766,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2785,15 +2779,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2805,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,11 +2816,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2838,7 +2832,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2855,11 +2849,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2871,7 +2865,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2884,15 +2878,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2904,7 +2898,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2921,11 +2915,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2937,7 +2931,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2954,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2970,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,7 +2997,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3016,15 +3010,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3036,7 +3030,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3053,11 +3047,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3069,7 +3063,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3086,11 +3080,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3102,7 +3096,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3119,11 +3113,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3135,7 +3129,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3152,11 +3146,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3168,7 +3162,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3181,15 +3175,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3201,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,11 +3212,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3234,7 +3228,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3251,11 +3245,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3267,7 +3261,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3280,15 +3274,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3300,7 +3294,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3317,11 +3311,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3333,7 +3327,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3350,11 +3344,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3366,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,28 +3393,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3432,7 +3426,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3449,11 +3443,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3465,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,11 +3476,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3498,7 +3492,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3515,11 +3509,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3531,7 +3525,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3548,11 +3542,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3564,7 +3558,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3581,11 +3575,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3597,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,11 +3608,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3630,7 +3624,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3643,15 +3637,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3663,7 +3657,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3680,11 +3674,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3696,7 +3690,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3713,11 +3707,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3729,7 +3723,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3746,11 +3740,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3762,7 +3756,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3779,11 +3773,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3795,7 +3789,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3812,11 +3806,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3828,7 +3822,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3845,11 +3839,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3861,7 +3855,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3878,11 +3872,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3894,7 +3888,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3911,11 +3905,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3927,7 +3921,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3948,7 +3942,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3960,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,11 +3971,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>34</v>
@@ -3993,28 +3987,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4026,7 +4020,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4039,15 +4033,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4059,7 +4053,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4072,15 +4066,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4092,7 +4086,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4105,15 +4099,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4125,7 +4119,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4138,15 +4132,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4158,28 +4152,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4191,7 +4185,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4204,15 +4198,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4224,7 +4218,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4237,15 +4231,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4257,7 +4251,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4270,18 +4264,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,7 +4284,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4303,15 +4297,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>31</v>
@@ -4323,7 +4317,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4336,15 +4330,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4356,7 +4350,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4369,7 +4363,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4389,7 +4383,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4402,15 +4396,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4422,7 +4416,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4435,15 +4429,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4455,7 +4449,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4468,15 +4462,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>34</v>
@@ -4488,7 +4482,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4501,7 +4495,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4509,7 +4503,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>34</v>
@@ -4521,28 +4515,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>34</v>
@@ -4554,7 +4548,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4567,15 +4561,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4587,28 +4581,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4620,7 +4614,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4633,15 +4627,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4653,20 +4647,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4686,28 +4680,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4719,28 +4713,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4754,7 +4748,7 @@
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c t="s" r="A107" s="14">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4762,13 +4756,13 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c t="s" r="G107" s="15">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="16"/>
       <c t="s" r="K107" s="17">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -845,7 +845,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:15 PM</t>
+    <t>Monday, 14 July, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -128,6 +128,9 @@
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
+    <t>1:18</t>
+  </si>
+  <si>
     <t>286.00</t>
   </si>
   <si>
@@ -191,6 +194,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -224,7 +236,7 @@
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>58.00</t>
@@ -368,7 +380,7 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>90.0000</t>
+    <t>180.0000</t>
   </si>
   <si>
     <t>FERROTRON 30 CAPS</t>
@@ -452,6 +464,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -527,7 +548,7 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
-    <t>135.0000</t>
+    <t>270.0000</t>
   </si>
   <si>
     <t>MINKشامبو700مل</t>
@@ -605,6 +626,9 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
+    <t>1:19</t>
+  </si>
+  <si>
     <t>752.00</t>
   </si>
   <si>
@@ -638,6 +662,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TAKER FEMININE WASH</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -731,9 +764,6 @@
     <t>ايفا كيراتين حمام كريم</t>
   </si>
   <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -845,7 +875,10 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:19 PM</t>
+    <t>ملك العود مسك</t>
+  </si>
+  <si>
+    <t>Monday, 14 July, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1717,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1694,14 +1727,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1710,28 +1743,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1743,7 +1776,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1760,11 +1793,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1776,7 +1809,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1793,11 +1826,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1809,14 +1842,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1826,11 +1859,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1842,7 +1875,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1859,11 +1892,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1875,14 +1908,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1892,14 +1925,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1908,14 +1941,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1925,14 +1958,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1948,7 +1981,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1958,11 +1991,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1974,14 +2007,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1998,7 +2031,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2031,7 +2064,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2047,7 +2080,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2057,14 +2090,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2073,14 +2106,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2097,7 +2130,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2123,11 +2156,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2139,14 +2172,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2156,11 +2189,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2179,21 +2212,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2205,28 +2238,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2238,14 +2271,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2255,14 +2288,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2271,7 +2304,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2288,14 +2321,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2304,14 +2337,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2321,14 +2354,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2337,7 +2370,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2354,11 +2387,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,14 +2420,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2403,7 +2436,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2420,14 +2453,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2436,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2486,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2476,7 +2509,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2519,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2535,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2535,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2585,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,14 +2601,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2592,7 +2625,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2608,7 +2641,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2651,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,7 +2667,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2651,11 +2684,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2707,24 +2740,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,31 +2766,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,31 +2799,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2799,31 +2832,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,11 +2882,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2865,31 +2898,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,11 +2948,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2931,31 +2964,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2964,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +3014,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,31 +3030,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3030,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3063,31 +3096,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,14 +3146,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3129,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,31 +3195,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,7 +3261,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3241,18 +3274,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3268,21 +3301,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3294,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,31 +3360,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3393,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,14 +3410,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3393,28 +3426,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3433,7 +3466,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3450,7 +3483,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3466,21 +3499,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3492,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,11 +3542,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3525,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3608,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3591,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3641,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,31 +3657,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,7 +3723,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3703,15 +3736,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3723,28 +3756,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3756,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,11 +3839,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3822,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3855,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3938,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,7 +3954,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3938,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,11 +4004,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>34</v>
@@ -3987,31 +4020,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,31 +4053,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,31 +4086,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,28 +4119,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4119,28 +4152,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4152,28 +4185,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4192,13 +4225,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4225,13 +4258,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4239,7 +4272,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4251,31 +4284,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,31 +4317,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,7 +4350,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4330,15 +4363,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4350,31 +4383,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,31 +4416,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,7 +4449,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4429,15 +4462,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4449,31 +4482,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4482,7 +4515,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4495,18 +4528,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4515,31 +4548,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4548,31 +4581,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4581,31 +4614,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4614,31 +4647,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4647,28 +4680,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4680,28 +4713,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4713,66 +4746,198 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4575.3149999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>278</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>279</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>280</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>285</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>131</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>45</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>14</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>286</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>34</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>45</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>46</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>287</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>259</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>45</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>248</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>288</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>45</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>256</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5004.8249999999998</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>289</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>290</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>291</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5276,10 +5441,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>20.0000</t>
+  </si>
+  <si>
+    <t>زولا داعم كاحل</t>
   </si>
   <si>
     <t>زيت فاتيكا وسط 90 مل</t>
@@ -4291,7 +4294,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,11 +4304,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4317,14 +4320,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4334,11 +4337,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4350,14 +4353,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4367,11 +4370,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4449,7 +4452,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4466,14 +4469,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4489,7 +4492,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4499,11 +4502,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4532,11 +4535,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4548,14 +4551,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,11 +4568,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4588,7 +4591,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,14 +4601,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4621,7 +4624,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,11 +4634,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>34</v>
@@ -4654,7 +4657,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,11 +4667,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>34</v>
@@ -4680,14 +4683,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,14 +4700,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4720,7 +4723,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4730,11 +4733,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4746,14 +4749,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4786,7 +4789,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4796,11 +4799,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4819,7 +4822,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4829,11 +4832,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4852,7 +4855,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4862,11 +4865,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4885,7 +4888,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4895,49 +4898,82 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>289</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>31</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>45</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>256</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>257</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5004.8249999999998</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>289</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5049.8249999999998</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
         <v>290</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
         <v>291</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>292</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5461,10 +5497,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -881,7 +890,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:20 PM</t>
+    <t>Monday, 14 July, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2347,7 +2356,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2357,7 +2366,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2380,7 +2389,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2397,7 +2406,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2446,7 +2455,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2463,7 +2472,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,10 +2502,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2538,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2578,7 +2587,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2595,7 +2604,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2611,7 +2620,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2628,7 +2637,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2644,7 +2653,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2694,7 +2703,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,11 +2762,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2769,20 +2778,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2790,10 +2799,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2802,31 +2811,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2842,24 +2851,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2868,24 +2877,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2908,7 +2917,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2980,15 +2989,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3000,28 +3009,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3106,13 +3115,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3120,10 +3129,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3145,15 +3154,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3205,7 +3214,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3238,7 +3247,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3264,31 +3273,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,28 +3306,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3354,7 +3363,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3370,24 +3379,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,7 +3405,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3409,15 +3418,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3436,7 +3445,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3450,10 +3459,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>166</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3502,24 +3511,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3528,20 +3537,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3568,7 +3577,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3611,11 +3620,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3700,7 +3709,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3733,13 +3742,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3750,7 +3759,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3766,7 +3775,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3799,21 +3808,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,11 +3851,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3865,7 +3874,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3898,7 +3907,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3912,10 +3921,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,31 +4131,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,11 +4181,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4188,7 +4197,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4205,11 +4214,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4221,7 +4230,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4238,11 +4247,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4261,7 +4270,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4294,7 +4303,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4393,7 +4402,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4407,7 +4416,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4419,7 +4428,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4452,7 +4461,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4485,7 +4494,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4502,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,11 +4544,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4551,7 +4560,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4568,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4591,7 +4600,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,11 +4610,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>34</v>
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>34</v>
@@ -4723,7 +4732,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,11 +4775,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4799,11 +4808,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4832,11 +4841,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4865,11 +4874,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4898,11 +4907,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4931,49 +4940,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5049.8249999999998</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>290</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>291</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>292</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>31</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>45</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>259</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5067.8249999999998</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>293</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>294</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>295</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5502,10 +5544,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -575,6 +575,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -890,7 +899,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:21 PM</t>
+    <t>Monday, 14 July, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3379,7 +3388,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3396,7 +3405,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3412,24 +3421,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,7 +3447,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3451,15 +3460,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3478,7 +3487,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3492,10 +3501,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3544,24 +3553,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,20 +3579,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3610,7 +3619,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,11 +3662,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3742,7 +3751,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3775,13 +3784,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3792,7 +3801,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3808,7 +3817,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3841,21 +3850,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3907,7 +3916,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3940,7 +3949,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3954,10 +3963,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4025,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4124,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,31 +4173,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,11 +4223,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4230,7 +4239,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4247,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4263,7 +4272,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4280,11 +4289,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4303,7 +4312,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4336,7 +4345,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,11 +4355,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,11 +4388,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4435,7 +4444,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4449,7 +4458,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4461,7 +4470,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4478,14 +4487,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,7 +4503,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4511,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,7 +4536,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4544,14 +4553,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,11 +4586,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4593,7 +4602,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4610,11 +4619,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4633,7 +4642,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4659,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,11 +4718,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>34</v>
@@ -4725,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,11 +4751,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>34</v>
@@ -4765,7 +4774,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,14 +4784,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4791,14 +4800,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4808,11 +4817,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4824,14 +4833,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4841,11 +4850,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4857,14 +4866,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4874,11 +4883,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4890,14 +4899,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4907,11 +4916,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4923,14 +4932,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4940,11 +4949,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>251</v>
+        <v>46</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4956,14 +4965,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4973,49 +4982,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5067.8249999999998</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>293</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>294</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>295</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>31</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>45</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>262</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5307.8249999999998</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>296</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>297</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>298</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5549,10 +5591,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -860,6 +860,12 @@
     <t>شامبو فاتيكا 360مل</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">فاميليا مناديل </t>
   </si>
   <si>
@@ -899,7 +905,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:27 PM</t>
+    <t>Monday, 14 July, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4708,7 +4714,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4734,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>34</v>
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4784,11 +4790,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>34</v>
@@ -4800,14 +4806,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,14 +4823,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,11 +4856,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4873,7 +4879,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4883,11 +4889,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4916,11 +4922,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4932,14 +4938,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4949,11 +4955,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4965,14 +4971,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4982,11 +4988,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -4998,14 +5004,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5015,49 +5021,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>297</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>31</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>45</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>262</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>263</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5307.8249999999998</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>296</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>297</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5327.8249999999998</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>298</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>299</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>300</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5596,10 +5635,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -656,6 +656,15 @@
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -905,7 +914,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:28 PM</t>
+    <t>Monday, 14 July, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3724,7 +3733,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3790,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3823,13 +3832,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3840,7 +3849,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3856,7 +3865,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3889,21 +3898,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3955,7 +3964,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3988,7 +3997,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4002,10 +4011,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,11 +4172,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,31 +4221,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4278,7 +4287,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4295,11 +4304,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4311,7 +4320,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4328,11 +4337,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4351,7 +4360,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4384,7 +4393,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4483,7 +4492,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4497,7 +4506,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4509,7 +4518,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,7 +4551,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>31</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,7 +4584,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4592,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4641,7 +4650,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4658,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4681,7 +4690,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,11 +4700,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4740,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,11 +4799,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>34</v>
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,11 +4832,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>34</v>
@@ -4846,7 +4855,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4856,14 +4865,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4872,14 +4881,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4889,11 +4898,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4905,14 +4914,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4922,11 +4931,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4938,14 +4947,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4955,11 +4964,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4988,11 +4997,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5004,14 +5013,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5021,11 +5030,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5037,14 +5046,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5054,49 +5063,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5327.8249999999998</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>298</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>299</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>300</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>31</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>45</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>265</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5375.3450000000003</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>301</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>302</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>303</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5640,10 +5682,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -80,240 +80,240 @@
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AVUVA WHITE PASTE</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CALAMINE LOTION 120 ML NOVEX</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>1:18</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>28.6000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AVUVA WHITE PASTE</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CALAMINE LOTION 120 ML NOVEX</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>CAL-MAG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -632,6 +632,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -671,6 +677,12 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -755,9 +767,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -914,7 +923,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:29 PM</t>
+    <t>Monday, 14 July, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1630,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1631,14 +1640,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1647,14 +1656,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1664,11 +1673,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1697,14 +1706,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1730,11 +1739,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1779,28 +1788,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1812,7 +1821,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1829,11 +1838,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1845,7 +1854,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1862,11 +1871,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1878,14 +1887,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1895,11 +1904,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1928,11 +1937,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1944,14 +1953,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1961,11 +1970,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1977,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2060,11 +2069,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2093,11 +2102,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2126,11 +2135,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2142,7 +2151,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2159,11 +2168,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2192,11 +2201,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2225,11 +2234,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2258,11 +2267,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2274,28 +2283,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2307,7 +2316,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2324,11 +2333,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,7 +2399,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2413,7 +2422,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2446,7 +2455,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2479,7 +2488,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2512,7 +2521,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2545,7 +2554,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2559,10 +2568,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2588,7 +2597,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2644,7 +2653,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2727,7 +2736,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2842,13 +2851,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2908,17 +2917,17 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2974,7 +2983,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,7 +2993,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3007,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3040,21 +3049,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3073,7 +3082,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,7 +3092,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3106,7 +3115,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3172,13 +3181,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3205,7 +3214,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3238,7 +3247,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3304,7 +3313,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3403,7 +3412,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3469,13 +3478,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3502,7 +3511,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3568,7 +3577,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3607,7 +3616,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3634,7 +3643,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,11 +3653,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3799,7 +3808,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3813,10 +3822,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,11 +3851,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3858,31 +3867,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,31 +3900,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,28 +3933,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3964,13 +3973,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3997,7 +4006,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4016,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4096,7 +4105,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4110,10 +4119,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4162,7 +4171,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,7 +4197,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4228,7 +4237,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>100</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,31 +4263,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,31 +4296,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,28 +4329,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4353,28 +4362,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4386,28 +4395,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4419,28 +4428,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4452,28 +4461,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4485,28 +4494,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4518,28 +4527,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4551,31 +4560,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4591,24 +4600,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,24 +4633,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4657,24 +4666,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,28 +4692,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4716,28 +4725,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4749,28 +4758,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4789,24 +4798,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4822,24 +4831,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,31 +4857,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4881,7 +4890,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4894,18 +4903,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4914,31 +4923,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4954,13 +4963,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -4987,21 +4996,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5013,28 +5022,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5046,28 +5055,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>269</v>
+        <v>134</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5079,66 +5088,132 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5375.3450000000003</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>301</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>302</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>272</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>44</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>260</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>303</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>30</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>44</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>268</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5464.8149999999996</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>304</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>305</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>306</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5687,10 +5762,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -200,6 +200,24 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -290,9 +308,6 @@
     <t>65.00</t>
   </si>
   <si>
-    <t>13.0000</t>
-  </si>
-  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -539,9 +554,6 @@
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -923,7 +935,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:45 PM</t>
+    <t>Monday, 14 July, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1993,7 +2005,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2026,7 +2038,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2036,14 +2048,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2069,14 +2081,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,14 +2114,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2135,11 +2147,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,11 +2180,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2184,14 +2196,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,11 +2213,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2217,14 +2229,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2234,14 +2246,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2290,21 +2302,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2337,7 +2349,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2356,24 +2368,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2510,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2587,7 +2599,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2679,7 +2691,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,11 +2840,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2844,31 +2856,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2917,7 +2929,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2967,7 +2979,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2983,24 +2995,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3016,7 +3028,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3049,24 +3061,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,11 +3104,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3108,31 +3120,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3181,24 +3193,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>174</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3247,13 +3259,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3264,7 +3276,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3280,7 +3292,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3339,31 +3351,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,28 +3417,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,7 +3483,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3484,15 +3496,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3511,7 +3523,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3528,7 +3540,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3544,24 +3556,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,28 +3615,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3669,28 +3681,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3702,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3731,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,11 +3764,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3768,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>219</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3808,7 +3820,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3874,7 +3886,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3888,10 +3900,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,11 +3929,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3933,31 +3945,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,31 +3978,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,28 +4011,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4039,13 +4051,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4072,7 +4084,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,11 +4094,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4098,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,14 +4127,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4160,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4171,7 +4183,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4185,10 +4197,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,14 +4209,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4226,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4237,7 +4249,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,7 +4275,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4280,14 +4292,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,31 +4341,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,31 +4374,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,11 +4424,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4428,7 +4440,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4445,11 +4457,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4468,7 +4480,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,11 +4490,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4494,14 +4506,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,11 +4523,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4534,7 +4546,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,11 +4556,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,11 +4589,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,11 +4622,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,14 +4655,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,7 +4671,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4676,14 +4688,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,7 +4704,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4709,14 +4721,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,14 +4737,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,14 +4754,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,11 +4787,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4798,7 +4810,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,11 +4820,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4831,7 +4843,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,11 +4853,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4886,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,14 +4902,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,14 +4919,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4952,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>33</v>
@@ -4973,14 +4985,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5006,14 +5018,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5022,14 +5034,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,11 +5051,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5055,14 +5067,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5072,11 +5084,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5088,7 +5100,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5105,11 +5117,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5121,14 +5133,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5138,11 +5150,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5154,14 +5166,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5171,49 +5183,115 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5464.8149999999996</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>304</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>305</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>306</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>276</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>44</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>264</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>307</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>30</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>44</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>272</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5493.6549999999997</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>308</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>309</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>310</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5772,10 +5850,20 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>E-MOXCLAV 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
@@ -782,9 +791,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>16.3200</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -866,6 +872,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -935,7 +944,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:52 PM</t>
+    <t>Monday, 14 July, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2539,7 +2548,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2599,7 +2608,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2616,7 +2625,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2646,10 +2655,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2748,7 +2757,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2764,7 +2773,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2781,7 +2790,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2797,7 +2806,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2847,7 +2856,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2896,7 +2905,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,11 +2915,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2922,20 +2931,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2943,10 +2952,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2955,31 +2964,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2995,24 +3004,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3021,24 +3030,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3061,7 +3070,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3133,15 +3142,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3153,28 +3162,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3259,13 +3268,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3273,10 +3282,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3298,15 +3307,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3368,7 +3377,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3391,7 +3400,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3417,31 +3426,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3450,28 +3459,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3523,7 +3532,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3540,7 +3549,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3556,24 +3565,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3582,7 +3591,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3595,15 +3604,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3622,7 +3631,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3636,10 +3645,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3688,24 +3697,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,28 +3723,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,7 +3773,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3787,7 +3796,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,11 +3839,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3886,7 +3895,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,7 +3971,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3985,7 +3994,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4018,13 +4027,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4035,7 +4044,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4051,7 +4060,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4084,21 +4093,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,11 +4136,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4150,7 +4159,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4183,7 +4192,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4197,10 +4206,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,11 +4268,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4358,11 +4367,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,31 +4416,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,11 +4466,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4473,7 +4482,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4490,11 +4499,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4506,7 +4515,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4523,11 +4532,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,11 +4565,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,11 +4598,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,11 +4631,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4671,14 +4680,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,11 +4697,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4721,14 +4730,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,7 +4746,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4754,14 +4763,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,7 +4779,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,11 +4829,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4836,7 +4845,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4853,11 +4862,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4876,7 +4885,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4886,11 +4895,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4902,14 +4911,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,11 +4928,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4968,14 +4977,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,11 +4994,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>33</v>
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,11 +5027,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>33</v>
@@ -5041,7 +5050,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5084,11 +5093,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5100,14 +5109,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5117,11 +5126,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5150,11 +5159,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5183,11 +5192,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5199,14 +5208,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5249,49 +5258,82 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5493.6549999999997</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>308</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>309</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>310</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>30</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>44</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>274</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>5632.6549999999997</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>311</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>312</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>313</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5860,10 +5902,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -692,6 +692,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -776,12 +785,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -944,7 +947,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:54 PM</t>
+    <t>Monday, 14 July, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3928,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3942,7 +3945,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3974,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,7 +4007,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4027,7 +4030,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4060,13 +4063,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4077,7 +4080,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4093,7 +4096,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4126,21 +4129,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4192,7 +4195,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4225,7 +4228,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4239,10 +4242,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,11 +4304,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4334,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4357,7 +4360,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4390,7 +4393,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>226</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4423,7 +4426,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,31 +4452,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,11 +4502,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4532,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4565,11 +4568,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4581,14 +4584,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,11 +4601,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4614,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,11 +4634,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4654,7 +4657,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,11 +4667,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4680,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,11 +4700,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4713,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,11 +4733,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4746,7 +4749,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4763,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,7 +4782,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4796,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,7 +4815,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4829,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4852,7 +4855,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,11 +4865,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4895,11 +4898,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4911,14 +4914,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,11 +4931,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4951,7 +4954,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,11 +4964,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4977,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,14 +4997,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5017,7 +5020,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,11 +5030,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>33</v>
@@ -5050,7 +5053,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,11 +5063,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>33</v>
@@ -5076,14 +5079,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,14 +5096,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5116,7 +5119,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5126,11 +5129,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5142,14 +5145,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5159,11 +5162,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5182,7 +5185,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5192,11 +5195,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5215,7 +5218,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5225,11 +5228,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5248,7 +5251,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5258,11 +5261,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5281,7 +5284,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5291,49 +5294,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>311</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>30</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>44</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>275</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>5632.6549999999997</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>311</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5670.6549999999997</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>312</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
         <v>313</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>314</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5907,10 +5943,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMINOLEBAN I.V. INFUSION 500 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>183.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -908,6 +917,9 @@
     <t>38:0</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t xml:space="preserve">فاميليا مناديل </t>
   </si>
   <si>
@@ -947,7 +959,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 8:57 PM</t>
+    <t>Monday, 14 July, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1737,7 +1749,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1770,7 +1782,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1786,7 +1798,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1796,14 +1808,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1812,31 +1824,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1845,20 +1857,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1918,7 +1930,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1968,7 +1980,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1984,7 +1996,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2001,7 +2013,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2017,7 +2029,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2034,7 +2046,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2050,7 +2062,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2067,7 +2079,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2083,7 +2095,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2093,7 +2105,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2182,7 +2194,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2192,14 +2204,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2225,14 +2237,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2265,7 +2277,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2281,7 +2293,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2324,11 +2336,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2357,11 +2369,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2380,21 +2392,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2413,13 +2425,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2427,7 +2439,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2439,14 +2451,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2460,10 +2472,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2512,7 +2524,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2522,7 +2534,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2545,13 +2557,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2562,7 +2574,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2584,7 +2596,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2644,7 +2656,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2661,7 +2673,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2677,7 +2689,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2691,10 +2703,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2776,7 +2788,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2793,7 +2805,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2809,7 +2821,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2826,7 +2838,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2842,7 +2854,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2892,7 +2904,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2941,7 +2953,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2967,20 +2979,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2988,10 +3000,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3000,31 +3012,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3040,24 +3052,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,24 +3078,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3106,7 +3118,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3178,15 +3190,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3198,28 +3210,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3281,14 +3293,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3304,13 +3316,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3318,10 +3330,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3343,15 +3355,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3413,7 +3425,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3436,7 +3448,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3462,31 +3474,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3495,28 +3507,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3568,7 +3580,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3585,7 +3597,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3601,24 +3613,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3627,7 +3639,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3640,15 +3652,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3667,7 +3679,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3681,10 +3693,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3733,24 +3745,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,28 +3771,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,7 +3821,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3832,7 +3844,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3842,11 +3854,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3858,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,11 +3887,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>226</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3931,7 +3943,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>229</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3964,7 +3976,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3978,7 +3990,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,7 +4052,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4063,7 +4075,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4096,13 +4108,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4113,7 +4125,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4129,13 +4141,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4162,21 +4174,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4228,7 +4240,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4261,7 +4273,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4275,10 +4287,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,11 +4349,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4353,7 +4365,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>226</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,31 +4497,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,28 +4530,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4551,7 +4563,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4564,15 +4576,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4584,7 +4596,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4597,15 +4609,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4624,13 +4636,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4657,21 +4669,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4683,28 +4695,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4716,20 +4728,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4756,13 +4768,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4770,7 +4782,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4782,7 +4794,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4795,18 +4807,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,7 +4827,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4828,18 +4840,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,7 +4860,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4861,18 +4873,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,28 +4893,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4914,7 +4926,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4927,15 +4939,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4954,21 +4966,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4980,28 +4992,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5013,31 +5025,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,31 +5058,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5079,31 +5091,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>34</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5125,18 +5137,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5158,18 +5170,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5178,28 +5190,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5211,28 +5223,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5244,28 +5256,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5277,28 +5289,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5310,7 +5322,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5323,53 +5335,119 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5670.6549999999997</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>312</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>313</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>314</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>282</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>47</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>270</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>315</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>34</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>47</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>278</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>5883.6549999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>316</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>317</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>318</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5948,10 +6026,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -380,6 +389,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -428,9 +446,6 @@
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
-    <t>138.00</t>
-  </si>
-  <si>
     <t>45.5400</t>
   </si>
   <si>
@@ -563,6 +578,15 @@
     <t>310.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -650,6 +674,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -668,6 +701,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -692,6 +737,9 @@
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
@@ -959,7 +1007,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:01 PM</t>
+    <t>Monday, 14 July, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2590,13 +2638,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2607,7 +2655,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2629,7 +2677,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2689,7 +2737,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2706,7 +2754,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2722,7 +2770,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2736,10 +2784,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2748,14 +2796,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2765,14 +2813,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2788,7 +2836,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2802,10 +2850,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2862,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,14 +2879,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2887,7 +2935,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2945,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2946,14 +2994,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +3011,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,11 +3044,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3012,31 +3060,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3045,14 +3093,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3085,7 +3133,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,11 +3143,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3135,7 +3183,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3151,24 +3199,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3184,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3217,13 +3265,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3231,10 +3279,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,14 +3291,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,11 +3308,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3276,31 +3324,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3309,14 +3357,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,14 +3374,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3349,24 +3397,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3375,14 +3423,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,14 +3440,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>185</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3415,24 +3463,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3489,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,14 +3506,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3474,7 +3522,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3491,14 +3539,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3507,31 +3555,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,7 +3621,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3590,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3619,18 +3667,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3639,28 +3687,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3672,7 +3720,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3689,11 +3737,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3705,7 +3753,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3722,11 +3770,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3738,31 +3786,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3778,24 +3826,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,7 +3852,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3821,11 +3869,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3837,14 +3885,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3902,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,14 +3918,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3935,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,28 +3951,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3936,14 +3984,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +4001,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>229</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3976,7 +4024,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3990,10 +4038,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,11 +4067,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4035,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,7 +4100,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4075,7 +4123,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,11 +4133,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4101,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4134,28 +4182,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4167,31 +4215,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4200,14 +4248,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,11 +4265,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4233,14 +4281,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,11 +4298,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4266,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,7 +4347,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4316,7 +4364,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4332,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,28 +4413,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4398,31 +4446,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4452,10 +4500,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,31 +4578,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,28 +4611,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4596,28 +4644,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4629,31 +4677,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,31 +4710,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,31 +4743,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,31 +4776,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,11 +4859,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4827,7 +4875,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4844,14 +4892,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,7 +4908,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4877,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,11 +4958,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4926,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4991,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4959,14 +5007,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +5024,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5057,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5090,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5058,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,14 +5123,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5091,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,14 +5156,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5157,14 +5205,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5190,7 +5238,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5207,11 +5255,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5223,14 +5271,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5240,11 +5288,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5256,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5273,11 +5321,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5289,14 +5337,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>145</v>
+        <v>298</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5306,11 +5354,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5322,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5343,10 +5391,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5355,14 +5403,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5372,14 +5420,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5388,14 +5436,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5405,49 +5453,280 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>5883.6549999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>316</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>317</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>318</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>324</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>16</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>47</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>164</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>325</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>326</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>47</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>250</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>327</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>30</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>47</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>164</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>328</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>150</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>47</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>14</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>329</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>30</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>47</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>48</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>330</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>298</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>47</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>286</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>331</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>34</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>47</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>294</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6337.6549999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>332</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>333</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>334</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6036,10 +6315,45 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -272,42 +284,45 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:3</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -335,9 +350,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -596,9 +608,6 @@
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MEGAMOX 1GM 14 F.C. TAB.</t>
   </si>
   <si>
@@ -608,6 +617,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -734,6 +752,18 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -839,6 +869,9 @@
     <t>43.00</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -932,7 +965,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1007,7 +1040,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:03 PM</t>
+    <t>Monday, 14 July, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1879,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1856,14 +1889,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1872,14 +1905,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1896,7 +1929,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1905,31 +1938,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1938,28 +1971,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1971,7 +2004,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1988,11 +2021,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2004,14 +2037,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2028,7 +2061,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2044,7 +2077,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2054,14 +2087,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2070,14 +2103,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2087,14 +2120,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2103,14 +2136,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2120,14 +2153,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2136,14 +2169,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2153,14 +2186,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2169,14 +2202,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2186,11 +2219,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2202,14 +2235,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2219,14 +2252,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2242,7 +2275,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2252,11 +2285,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2268,14 +2301,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2292,7 +2325,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2325,7 +2358,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2341,7 +2374,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2351,14 +2384,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2367,14 +2400,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2391,7 +2424,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2417,11 +2450,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2433,14 +2466,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2450,11 +2483,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2466,28 +2499,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2499,28 +2532,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2532,14 +2565,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2549,14 +2582,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2582,14 +2615,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2615,11 +2648,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2631,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2648,11 +2681,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2664,31 +2697,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2697,7 +2730,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2710,15 +2743,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2730,7 +2763,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2747,11 +2780,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2763,7 +2796,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2780,11 +2813,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2813,14 +2846,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2829,14 +2862,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2846,14 +2879,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2862,14 +2895,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2879,14 +2912,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2902,7 +2935,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2912,14 +2945,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2928,14 +2961,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2945,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2961,14 +2994,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2978,14 +3011,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2994,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3018,7 +3051,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3034,7 +3067,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3044,14 +3077,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3060,7 +3093,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3077,11 +3110,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3133,24 +3166,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3159,31 +3192,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3192,31 +3225,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3225,28 +3258,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3275,14 +3308,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,14 +3341,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3324,7 +3357,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3337,15 +3370,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3357,28 +3390,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3390,14 +3423,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,14 +3440,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,14 +3456,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,14 +3473,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3456,31 +3489,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3489,28 +3522,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3522,14 +3555,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,11 +3572,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3555,14 +3588,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3605,11 +3638,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3628,7 +3661,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3638,14 +3671,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,31 +3687,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3720,28 +3753,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3777,7 +3810,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3799,15 +3832,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3819,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3852,31 +3885,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3902,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,14 +3968,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3958,24 +3991,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3984,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,14 +4034,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4024,21 +4057,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4083,7 +4116,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4100,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4116,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4149,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4166,11 +4199,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4182,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4215,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,14 +4265,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4248,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4281,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4314,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4347,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4380,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,14 +4430,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4413,31 +4446,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4446,31 +4479,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,7 +4545,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4525,15 +4558,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4545,28 +4578,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4578,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,11 +4661,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4644,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,11 +4694,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4677,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4710,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4776,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4809,31 +4842,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>155</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4842,31 +4875,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,31 +4908,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,31 +4941,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,28 +4974,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4974,28 +5007,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5007,28 +5040,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5047,13 +5080,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5080,13 +5113,13 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5094,7 +5127,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5106,31 +5139,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>307</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5146,24 +5179,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5172,28 +5205,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5205,28 +5238,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5238,31 +5271,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5271,7 +5304,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5284,18 +5317,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5304,28 +5337,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5337,28 +5370,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5370,31 +5403,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,31 +5436,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5436,31 +5469,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5469,28 +5502,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5502,31 +5535,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5535,31 +5568,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5568,31 +5601,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>150</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5601,28 +5634,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5634,28 +5667,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5667,66 +5700,198 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6337.6549999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>332</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>333</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>334</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>339</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>154</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>51</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>14</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>340</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>30</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>51</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>52</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>341</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>309</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>51</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>297</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>342</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>34</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>51</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>305</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6444.6000000000004</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>343</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>344</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>345</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6350,10 +6515,30 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:18 PM</t>
+    <t>Monday, 14 July, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -296,9 +305,6 @@
     <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -827,6 +833,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -1040,7 +1055,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:39 PM</t>
+    <t>Monday, 14 July, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,7 +1960,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1955,14 +1970,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1971,31 +1986,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2004,20 +2019,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2077,7 +2092,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2127,7 +2142,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2143,7 +2158,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2160,7 +2175,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2176,7 +2191,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2193,7 +2208,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2209,7 +2224,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2226,7 +2241,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2242,7 +2257,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2252,7 +2267,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2285,14 +2300,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2301,14 +2316,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2341,7 +2356,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2351,14 +2366,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2367,14 +2382,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2424,7 +2439,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2440,7 +2455,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2483,11 +2498,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2516,11 +2531,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2532,20 +2547,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2553,7 +2568,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2565,28 +2580,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2605,7 +2620,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2619,10 +2634,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2681,11 +2696,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,11 +2729,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2730,31 +2745,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2763,7 +2778,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2776,15 +2791,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2796,7 +2811,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2829,7 +2844,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2846,11 +2861,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2895,7 +2910,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2935,7 +2950,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3034,7 +3049,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3126,7 +3141,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3143,11 +3158,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,11 +3191,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3192,31 +3207,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3232,13 +3247,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3246,10 +3261,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,31 +3273,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3298,21 +3313,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3364,7 +3379,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,7 +3405,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3403,15 +3418,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3423,28 +3438,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3463,7 +3478,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,14 +3488,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3496,7 +3511,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3522,31 +3537,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3555,28 +3570,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,7 +3620,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3628,7 +3643,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,11 +3686,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,11 +3719,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3720,7 +3735,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3760,24 +3775,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,28 +3801,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,11 +3851,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,14 +3884,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,31 +3900,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3918,7 +3933,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3931,15 +3946,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3951,14 +3966,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +3983,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3991,7 +4006,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4005,10 +4020,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,31 +4065,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,24 +4098,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4123,7 +4138,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,11 +4148,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,11 +4247,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,11 +4280,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,11 +4313,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4362,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,14 +4379,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,11 +4445,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4453,7 +4468,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4486,7 +4501,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,11 +4511,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4544,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4545,31 +4560,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,28 +4593,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,11 +4643,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4644,28 +4659,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4677,14 +4692,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,11 +4709,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4750,7 +4765,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4764,7 +4779,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4841,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4874,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4907,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,14 +4956,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,14 +4973,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>142</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4981,24 +4996,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,31 +5022,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5047,21 +5062,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5073,7 +5088,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5086,15 +5101,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5106,28 +5121,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5139,28 +5154,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5172,20 +5187,20 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5212,21 +5227,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5238,28 +5253,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5278,24 +5293,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,7 +5319,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5317,18 +5332,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,7 +5352,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5350,18 +5365,18 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>294</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,31 +5385,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,28 +5418,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5436,28 +5451,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5469,28 +5484,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5502,28 +5517,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>309</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5535,31 +5550,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5568,31 +5583,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5601,28 +5616,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>30</v>
@@ -5634,7 +5649,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5647,18 +5662,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5667,31 +5682,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>233</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5700,28 +5715,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5733,28 +5748,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5766,7 +5781,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5779,15 +5794,15 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5799,28 +5814,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5832,66 +5847,132 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>306</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6444.6000000000004</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>343</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>344</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>345</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>346</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>314</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>54</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>302</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>347</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>34</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>54</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>310</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6588.1000000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>348</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>349</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>350</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6535,10 +6616,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -479,9 +491,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -524,6 +533,15 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
@@ -554,6 +572,9 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
     <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -686,9 +707,6 @@
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -758,6 +776,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -929,6 +956,15 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -1022,15 +1058,15 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
     <t>كريم ONE للبشره الحساسه</t>
   </si>
   <si>
     <t>-1:0</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>كريم براشوت</t>
   </si>
   <si>
@@ -1052,10 +1088,19 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
+    <t>معجون سيجنال اطفال 50 ملل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 9:40 PM</t>
+    <t>Monday, 14 July, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1746,7 +1791,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1779,7 +1824,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1788,14 +1833,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1812,7 +1857,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1845,7 +1890,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1878,7 +1923,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1911,7 +1956,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1927,7 +1972,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1937,14 +1982,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1953,14 +1998,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1970,14 +2015,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1986,14 +2031,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2010,7 +2055,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2019,31 +2064,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2052,28 +2097,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2085,7 +2130,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2102,11 +2147,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2118,14 +2163,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2142,7 +2187,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2158,7 +2203,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2168,14 +2213,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2184,14 +2229,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2201,14 +2246,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2217,14 +2262,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2234,14 +2279,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2250,14 +2295,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2267,14 +2312,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2283,14 +2328,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2300,11 +2345,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2316,14 +2361,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2333,14 +2378,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2356,7 +2401,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2366,14 +2411,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2382,14 +2427,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2406,7 +2451,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2439,7 +2484,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2455,7 +2500,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2465,14 +2510,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2481,14 +2526,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2498,14 +2543,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2531,14 +2576,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2547,14 +2592,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2564,14 +2609,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2580,31 +2625,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2613,31 +2658,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2646,14 +2691,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2663,14 +2708,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2679,14 +2724,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2696,14 +2741,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2712,14 +2757,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2729,14 +2774,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2745,14 +2790,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2762,14 +2807,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2778,31 +2823,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2811,28 +2856,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2844,14 +2889,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2861,11 +2906,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2877,14 +2922,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2894,11 +2939,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2910,14 +2955,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2927,14 +2972,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2943,14 +2988,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2960,14 +3005,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2976,14 +3021,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2993,14 +3038,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>146</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3016,7 +3061,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3026,14 +3071,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3042,14 +3087,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3059,14 +3104,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3075,14 +3120,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3092,14 +3137,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3108,14 +3153,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3132,7 +3177,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3148,7 +3193,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3165,7 +3210,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3181,7 +3226,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3198,7 +3243,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3214,7 +3259,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3224,14 +3269,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3240,20 +3285,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3261,10 +3306,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3273,31 +3318,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3313,21 +3358,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3339,7 +3384,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3356,14 +3401,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3372,31 +3417,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3405,14 +3450,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3422,11 +3467,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3438,31 +3483,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3471,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3488,11 +3533,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3504,14 +3549,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3521,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3537,31 +3582,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3577,21 +3622,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3603,14 +3648,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3620,14 +3665,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3636,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3653,14 +3698,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3669,31 +3714,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3702,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3719,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3735,14 +3780,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3752,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3775,7 +3820,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3785,14 +3830,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3801,31 +3846,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3834,14 +3879,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3858,7 +3903,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3874,7 +3919,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3884,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3900,7 +3945,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3913,18 +3958,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3933,28 +3978,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3973,7 +4018,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4020,10 +4065,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4032,31 +4077,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4065,14 +4110,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4082,11 +4127,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4098,31 +4143,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4131,14 +4176,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4148,14 +4193,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4164,14 +4209,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4181,14 +4226,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4197,31 +4242,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4237,7 +4282,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4247,14 +4292,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4263,14 +4308,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4280,14 +4325,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4296,14 +4341,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4313,14 +4358,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4329,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4346,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4362,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4379,14 +4424,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4402,24 +4447,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4435,7 +4480,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4445,14 +4490,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4461,14 +4506,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4478,14 +4523,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4501,7 +4546,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4511,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4527,14 +4572,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4544,14 +4589,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4560,14 +4605,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4577,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4593,28 +4638,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4626,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4643,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4659,31 +4704,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4692,14 +4737,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4709,14 +4754,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4725,28 +4770,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4758,14 +4803,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4775,11 +4820,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4791,31 +4836,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4831,7 +4876,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4841,11 +4886,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4857,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4874,11 +4919,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4890,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4907,11 +4952,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4923,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4940,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4956,14 +5001,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4973,14 +5018,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4989,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5006,14 +5051,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5022,14 +5067,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5039,14 +5084,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5055,31 +5100,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>160</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5088,31 +5133,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,31 +5166,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5154,20 +5199,20 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5178,7 +5223,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5194,21 +5239,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5220,7 +5265,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5233,15 +5278,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5253,28 +5298,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5286,28 +5331,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5319,28 +5364,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5352,31 +5397,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5392,24 +5437,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5418,28 +5463,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5451,7 +5496,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5464,15 +5509,15 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5484,28 +5529,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5517,31 +5562,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5550,31 +5595,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5583,28 +5628,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5616,31 +5661,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5649,7 +5694,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5662,18 +5707,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>56</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5682,31 +5727,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>338</v>
+        <v>30</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5715,28 +5760,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5748,28 +5793,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5781,31 +5826,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5814,20 +5859,20 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
@@ -5835,10 +5880,10 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5847,28 +5892,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5880,31 +5925,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5913,66 +5958,297 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>353</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>354</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>58</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>271</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>355</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>34</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>58</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>173</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>356</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>18</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>58</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>14</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>357</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>34</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>58</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>59</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>358</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>326</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>58</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
         <v>311</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6588.1000000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>348</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>349</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>350</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>359</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>38</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>58</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>360</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>362</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>38</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>58</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>322</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>6902.1000000000004</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>363</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>364</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>365</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6626,10 +6902,45 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -251,6 +251,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -374,6 +386,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
@@ -428,6 +449,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -551,6 +581,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>GRODESIRE SYRUP</t>
   </si>
   <si>
@@ -620,9 +659,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -707,6 +743,15 @@
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
+    <t>ONE ALPHA 0.25MCG 30 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -731,9 +776,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -755,6 +797,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -830,9 +878,6 @@
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -893,12 +938,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -974,15 +1013,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">حنه جومانا </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>زولا داعم كاحل</t>
   </si>
   <si>
@@ -1100,7 +1142,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:31 PM</t>
+    <t>Monday, 14 July, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2335,7 +2377,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2345,11 +2387,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2361,14 +2403,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2378,11 +2420,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2394,14 +2436,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2411,14 +2453,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2434,7 +2476,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2444,11 +2486,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2460,14 +2502,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2484,7 +2526,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2517,7 +2559,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2533,7 +2575,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2543,14 +2585,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2559,14 +2601,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2576,14 +2618,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2609,11 +2651,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2625,14 +2667,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2642,11 +2684,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2658,28 +2700,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2691,28 +2733,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2724,14 +2766,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2741,14 +2783,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2757,14 +2799,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2774,14 +2816,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2790,14 +2832,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2807,11 +2849,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2823,14 +2865,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2840,11 +2882,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2856,31 +2898,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2889,14 +2931,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2906,14 +2948,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2922,7 +2964,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2935,15 +2977,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2955,7 +2997,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2972,11 +3014,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2988,14 +3030,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3005,14 +3047,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3021,7 +3063,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3038,14 +3080,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3054,14 +3096,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3071,14 +3113,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3087,14 +3129,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3104,14 +3146,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3120,14 +3162,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3137,14 +3179,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3153,14 +3195,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3170,14 +3212,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3186,14 +3228,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3203,14 +3245,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3219,14 +3261,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3236,11 +3278,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3252,14 +3294,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3269,14 +3311,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3285,14 +3327,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3309,7 +3351,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3325,13 +3367,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3339,10 +3381,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3351,14 +3393,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3368,14 +3410,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3384,14 +3426,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3401,11 +3443,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3417,14 +3459,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3434,11 +3476,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3450,14 +3492,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3467,11 +3509,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3483,14 +3525,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3500,11 +3542,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3516,14 +3558,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3533,14 +3575,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3549,7 +3591,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3562,15 +3604,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3582,28 +3624,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3615,14 +3657,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3632,14 +3674,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3648,14 +3690,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3665,14 +3707,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3681,14 +3723,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3698,14 +3740,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3714,7 +3756,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3731,11 +3773,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3747,14 +3789,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3764,11 +3806,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3780,14 +3822,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3797,14 +3839,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3813,14 +3855,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3830,14 +3872,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3846,31 +3888,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3879,14 +3921,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3896,14 +3938,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3912,7 +3954,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3929,14 +3971,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3945,31 +3987,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3978,14 +4020,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +4037,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4011,7 +4053,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4028,14 +4070,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4044,14 +4086,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4061,14 +4103,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4077,14 +4119,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,11 +4136,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4110,14 +4152,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4127,11 +4169,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4143,14 +4185,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4160,14 +4202,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4176,14 +4218,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4193,14 +4235,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4209,28 +4251,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4242,31 +4284,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4275,7 +4317,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4292,11 +4334,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4315,7 +4357,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4329,7 +4371,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4341,14 +4383,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4358,14 +4400,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4374,14 +4416,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4391,14 +4433,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4407,28 +4449,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4440,31 +4482,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4480,7 +4522,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4490,11 +4532,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4506,14 +4548,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4565,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4539,14 +4581,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,11 +4598,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4579,7 +4621,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4589,14 +4631,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>266</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4612,7 +4654,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4622,14 +4664,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4638,28 +4680,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4671,14 +4713,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4688,11 +4730,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4704,14 +4746,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4721,11 +4763,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4737,14 +4779,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,14 +4796,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4777,24 +4819,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>282</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4810,7 +4852,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4843,13 +4885,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4857,7 +4899,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4869,14 +4911,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4886,14 +4928,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4902,14 +4944,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,14 +4961,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,14 +4977,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4994,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4968,31 +5010,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5022,7 +5064,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5034,28 +5076,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5067,14 +5109,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5084,11 +5126,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5100,14 +5142,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5117,14 +5159,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5133,14 +5175,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,14 +5192,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5166,14 +5208,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5183,14 +5225,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>266</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,14 +5241,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,14 +5258,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5232,28 +5274,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5265,28 +5307,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5298,31 +5340,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5331,31 +5373,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5364,31 +5406,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5397,31 +5439,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5472,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>34</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,11 +5489,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5463,14 +5505,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>30</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,11 +5522,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5496,14 +5538,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5513,11 +5555,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5529,14 +5571,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5546,11 +5588,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5562,7 +5604,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5579,14 +5621,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>335</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5595,14 +5637,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5612,14 +5654,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5628,14 +5670,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,11 +5687,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5661,14 +5703,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5678,11 +5720,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5694,14 +5736,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5734,7 +5776,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,11 +5786,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>112</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5760,14 +5802,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>345</v>
+        <v>30</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5819,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5793,14 +5835,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>326</v>
+        <v>30</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,14 +5852,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5826,14 +5868,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,14 +5885,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>59</v>
+        <v>332</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5859,14 +5901,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,14 +5918,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5892,14 +5934,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5925,14 +5967,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5942,14 +5984,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5958,14 +6000,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5975,11 +6017,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5991,14 +6033,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6008,11 +6050,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6024,14 +6066,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6041,11 +6083,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6057,14 +6099,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6074,14 +6116,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6090,14 +6132,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6107,14 +6149,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6123,14 +6165,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6140,11 +6182,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6156,14 +6198,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6173,14 +6215,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>361</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6189,14 +6231,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6206,49 +6248,280 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
-      <c r="P143" s="13">
-        <v>6902.1000000000004</v>
-      </c>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c t="s" r="A144" s="14">
-        <v>363</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c t="s" r="G144" s="15">
-        <v>364</v>
-      </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c t="s" r="K144" s="17">
-        <v>365</v>
-      </c>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>367</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>368</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>58</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>287</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>369</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>34</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>58</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>183</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>370</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>18</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>58</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>14</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>371</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>34</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>58</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>59</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>372</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>340</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>58</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>324</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>373</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>38</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>58</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>374</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>375</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>376</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>38</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>58</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>335</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>7107.7799999999997</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>377</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>378</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>379</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="692">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6937,10 +7210,45 @@
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
     <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -704,9 +713,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -1037,9 +1043,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
   </si>
   <si>
@@ -1142,7 +1145,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:34 PM</t>
+    <t>Monday, 14 July, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2509,7 +2512,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2542,7 +2545,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2552,14 +2555,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2568,14 +2571,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2585,14 +2588,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2601,14 +2604,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2618,14 +2621,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2651,14 +2654,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2684,7 +2687,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2717,11 +2720,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2740,21 +2743,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2773,13 +2776,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2787,7 +2790,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2816,14 +2819,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2839,7 +2842,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2849,14 +2852,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2882,11 +2885,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2905,7 +2908,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2915,7 +2918,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2938,7 +2941,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2971,13 +2974,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2988,7 +2991,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3010,7 +3013,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -3070,7 +3073,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3087,7 +3090,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3103,7 +3106,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3120,7 +3123,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3136,7 +3139,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3153,7 +3156,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3183,10 +3186,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3195,14 +3198,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3212,14 +3215,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3245,14 +3248,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3268,7 +3271,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3278,14 +3281,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3294,14 +3297,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3311,14 +3314,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3334,7 +3337,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3351,7 +3354,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3367,7 +3370,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3384,7 +3387,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3433,7 +3436,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3459,20 +3462,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3480,10 +3483,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3492,28 +3495,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3532,7 +3535,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3549,7 +3552,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3565,7 +3568,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3598,24 +3601,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3624,24 +3627,24 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3664,7 +3667,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3674,14 +3677,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3690,14 +3693,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3707,14 +3710,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3740,11 +3743,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3769,15 +3772,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3789,28 +3792,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3839,14 +3842,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3872,14 +3875,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3895,13 +3898,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3909,10 +3912,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3928,21 +3931,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3971,11 +3974,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4020,14 +4023,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4037,11 +4040,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -4060,7 +4063,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4103,14 +4106,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4119,31 +4122,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4152,28 +4155,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4235,14 +4238,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4251,31 +4254,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4284,7 +4287,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4297,15 +4300,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4317,14 +4320,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4334,14 +4337,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4350,14 +4353,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4367,11 +4370,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4383,14 +4386,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4449,31 +4452,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4482,24 +4485,24 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4522,7 +4525,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4532,11 +4535,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4565,14 +4568,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4588,7 +4591,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4598,11 +4601,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4621,7 +4624,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4631,14 +4634,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4647,14 +4650,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4664,11 +4667,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4680,31 +4683,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4713,31 +4716,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4746,14 +4749,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4779,14 +4782,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4796,14 +4799,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4812,14 +4815,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4829,14 +4832,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4845,14 +4848,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4862,14 +4865,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>179</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4878,14 +4881,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4895,11 +4898,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4918,7 +4921,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4928,14 +4931,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4944,14 +4947,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4961,11 +4964,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4977,14 +4980,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4994,11 +4997,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -5010,31 +5013,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5043,28 +5046,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5076,28 +5079,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5109,28 +5112,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5142,14 +5145,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5159,11 +5162,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5175,14 +5178,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5192,11 +5195,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5208,14 +5211,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5225,14 +5228,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5248,7 +5251,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5262,10 +5265,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5281,7 +5284,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5291,11 +5294,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5307,14 +5310,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5324,11 +5327,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5340,7 +5343,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5357,14 +5360,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5373,14 +5376,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5390,14 +5393,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5406,14 +5409,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5423,14 +5426,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>282</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5439,14 +5442,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5456,14 +5459,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>34</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5472,31 +5475,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5505,14 +5508,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5522,11 +5525,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5538,7 +5541,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5555,11 +5558,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5571,14 +5574,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5588,11 +5591,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5604,14 +5607,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5621,11 +5624,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5637,14 +5640,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5654,11 +5657,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5670,14 +5673,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5687,11 +5690,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5703,14 +5706,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5720,11 +5723,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5736,14 +5739,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5753,11 +5756,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5769,14 +5772,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>342</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5786,11 +5789,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5802,14 +5805,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5819,11 +5822,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5835,7 +5838,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5852,14 +5855,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>349</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5868,7 +5871,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5885,14 +5888,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>38</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5901,7 +5904,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5918,14 +5921,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5941,7 +5944,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5951,11 +5954,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5984,11 +5987,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6000,14 +6003,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6017,11 +6020,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>194</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6040,7 +6043,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>359</v>
+        <v>30</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6050,11 +6053,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6066,14 +6069,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6083,11 +6086,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>60</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6106,7 +6109,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6120,10 +6123,10 @@
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6139,7 +6142,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6149,11 +6152,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>34</v>
@@ -6172,7 +6175,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6186,10 +6189,10 @@
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6205,7 +6208,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>365</v>
+        <v>18</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6215,14 +6218,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6231,14 +6234,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6248,14 +6251,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6271,7 +6274,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6281,11 +6284,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>287</v>
+        <v>186</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6297,14 +6300,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>34</v>
+        <v>369</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6314,11 +6317,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6337,7 +6340,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6347,11 +6350,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6370,7 +6373,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6380,11 +6383,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
@@ -6403,7 +6406,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6413,11 +6416,11 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6436,7 +6439,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6446,11 +6449,11 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>16</v>
@@ -6462,7 +6465,7 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -6479,49 +6482,82 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
-      <c r="P150" s="13">
-        <v>7107.7799999999997</v>
-      </c>
-      <c r="Q150" s="13"/>
-    </row>
-    <row r="151" ht="16.5" customHeight="1">
-      <c t="s" r="A151" s="14">
+      <c r="A150" s="7">
+        <v>144</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c t="s" r="C150" s="8">
         <v>377</v>
       </c>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c t="s" r="G151" s="15">
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>38</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c t="s" r="L150" s="10">
+        <v>58</v>
+      </c>
+      <c r="M150" s="10"/>
+      <c t="s" r="N150" s="8">
+        <v>337</v>
+      </c>
+      <c r="O150" s="8"/>
+      <c t="s" r="P150" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q150" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="P151" s="13">
+        <v>7132.7799999999997</v>
+      </c>
+      <c r="Q151" s="13"/>
+    </row>
+    <row r="152" ht="16.5" customHeight="1">
+      <c t="s" r="A152" s="14">
         <v>378</v>
       </c>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="16"/>
-      <c t="s" r="K151" s="17">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c t="s" r="G152" s="15">
         <v>379</v>
       </c>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
-      <c r="Q151" s="17"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c t="s" r="K152" s="17">
+        <v>380</v>
+      </c>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
+      <c r="P152" s="17"/>
+      <c r="Q152" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="727">
+  <mergeCells count="732">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7245,10 +7281,15 @@
     <mergeCell ref="H149:K149"/>
     <mergeCell ref="L149:M149"/>
     <mergeCell ref="N149:O149"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="K151:Q151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="P151:Q151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="K152:Q152"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-14_00-00.xlsx
+++ b/DaySale_2025-07-14_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -329,9 +338,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -590,6 +596,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -638,9 +653,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -839,6 +851,9 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -857,6 +872,15 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
@@ -887,12 +911,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -1061,7 +1079,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1145,7 +1163,7 @@
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>Monday, 14 July, 2025 10:45 PM</t>
+    <t>Monday, 14 July, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1869,7 +1887,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1902,7 +1920,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1935,7 +1953,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1968,7 +1986,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -2001,7 +2019,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2034,7 +2052,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2050,7 +2068,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2133,7 +2151,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2142,31 +2160,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2175,28 +2193,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2208,7 +2226,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2265,7 +2283,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2281,7 +2299,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2298,7 +2316,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2314,7 +2332,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2331,7 +2349,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2347,7 +2365,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2364,7 +2382,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2380,7 +2398,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2446,7 +2464,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2456,7 +2474,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2529,7 +2547,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2545,7 +2563,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2562,7 +2580,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2578,7 +2596,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2677,7 +2695,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2769,20 +2787,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2790,10 +2808,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2802,31 +2820,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2842,7 +2860,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2856,10 +2874,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3000,31 +3018,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3033,28 +3051,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
     